--- a/Список скамеров.xlsx
+++ b/Список скамеров.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1853"/>
+  <dimension ref="A1:E1945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
     <col width="33" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
@@ -35669,6 +35669,1746 @@
         </is>
       </c>
     </row>
+    <row r="1854">
+      <c r="A1854" s="1" t="n">
+        <v>1853</v>
+      </c>
+      <c r="B1854" s="1" t="n">
+        <v>5250874880</v>
+      </c>
+      <c r="C1854" s="1" t="inlineStr">
+        <is>
+          <t>advetrcoop</t>
+        </is>
+      </c>
+      <c r="D1854" s="1" t="n"/>
+      <c r="E1854" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="1" t="n">
+        <v>1854</v>
+      </c>
+      <c r="B1855" s="1" t="n">
+        <v>6279284821</v>
+      </c>
+      <c r="C1855" s="1" t="inlineStr">
+        <is>
+          <t>Cryptoswat</t>
+        </is>
+      </c>
+      <c r="D1855" s="1" t="n"/>
+      <c r="E1855" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="1" t="n">
+        <v>1855</v>
+      </c>
+      <c r="B1856" s="1" t="n">
+        <v>5524811492</v>
+      </c>
+      <c r="C1856" s="1" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D1856" s="1" t="n"/>
+      <c r="E1856" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="1" t="n">
+        <v>1856</v>
+      </c>
+      <c r="B1857" s="1" t="n">
+        <v>345870019</v>
+      </c>
+      <c r="C1857" s="1" t="inlineStr">
+        <is>
+          <t>Mor940k</t>
+        </is>
+      </c>
+      <c r="D1857" s="1" t="n"/>
+      <c r="E1857" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="1" t="n">
+        <v>1857</v>
+      </c>
+      <c r="B1858" s="1" t="n">
+        <v>709066769</v>
+      </c>
+      <c r="C1858" s="1" t="inlineStr">
+        <is>
+          <t>alina_work01</t>
+        </is>
+      </c>
+      <c r="D1858" s="1" t="n"/>
+      <c r="E1858" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="1" t="n">
+        <v>1858</v>
+      </c>
+      <c r="B1859" s="1" t="n">
+        <v>5926439007</v>
+      </c>
+      <c r="C1859" s="1" t="inlineStr">
+        <is>
+          <t>andprouu</t>
+        </is>
+      </c>
+      <c r="D1859" s="1" t="n"/>
+      <c r="E1859" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="1" t="n">
+        <v>1859</v>
+      </c>
+      <c r="B1860" s="1" t="n">
+        <v>1991248257</v>
+      </c>
+      <c r="C1860" s="1" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D1860" s="1" t="n"/>
+      <c r="E1860" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="1" t="n">
+        <v>1860</v>
+      </c>
+      <c r="B1861" s="1" t="n">
+        <v>5882577061</v>
+      </c>
+      <c r="C1861" s="1" t="inlineStr">
+        <is>
+          <t>Nastaytrash</t>
+        </is>
+      </c>
+      <c r="D1861" s="1" t="n"/>
+      <c r="E1861" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" s="1" t="n">
+        <v>1861</v>
+      </c>
+      <c r="B1862" s="1" t="n">
+        <v>6140904386</v>
+      </c>
+      <c r="C1862" s="1" t="inlineStr">
+        <is>
+          <t>geargodg</t>
+        </is>
+      </c>
+      <c r="D1862" s="1" t="n"/>
+      <c r="E1862" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="1" t="n">
+        <v>1862</v>
+      </c>
+      <c r="B1863" s="1" t="n">
+        <v>5825326695</v>
+      </c>
+      <c r="C1863" s="1" t="inlineStr">
+        <is>
+          <t>reborneta</t>
+        </is>
+      </c>
+      <c r="D1863" s="1" t="n"/>
+      <c r="E1863" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="1" t="n">
+        <v>1863</v>
+      </c>
+      <c r="B1864" s="1" t="n">
+        <v>5776169603</v>
+      </c>
+      <c r="C1864" s="1" t="inlineStr">
+        <is>
+          <t>pikmaestro</t>
+        </is>
+      </c>
+      <c r="D1864" s="1" t="n"/>
+      <c r="E1864" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="1" t="n">
+        <v>1864</v>
+      </c>
+      <c r="B1865" s="1" t="n">
+        <v>5793356100</v>
+      </c>
+      <c r="C1865" s="1" t="inlineStr">
+        <is>
+          <t>lukaryt</t>
+        </is>
+      </c>
+      <c r="D1865" s="1" t="n"/>
+      <c r="E1865" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" s="1" t="n">
+        <v>1865</v>
+      </c>
+      <c r="B1866" s="1" t="n">
+        <v>6052986554</v>
+      </c>
+      <c r="C1866" s="1" t="inlineStr">
+        <is>
+          <t>lickpigdk</t>
+        </is>
+      </c>
+      <c r="D1866" s="1" t="n"/>
+      <c r="E1866" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="1" t="n">
+        <v>1866</v>
+      </c>
+      <c r="B1867" s="1" t="n">
+        <v>925503979</v>
+      </c>
+      <c r="C1867" s="1" t="inlineStr">
+        <is>
+          <t>Ypalvk</t>
+        </is>
+      </c>
+      <c r="D1867" s="1" t="n"/>
+      <c r="E1867" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="1" t="n">
+        <v>1867</v>
+      </c>
+      <c r="B1868" s="1" t="n">
+        <v>5716441799</v>
+      </c>
+      <c r="C1868" s="1" t="inlineStr">
+        <is>
+          <t>KAZILFY</t>
+        </is>
+      </c>
+      <c r="D1868" s="1" t="n"/>
+      <c r="E1868" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" s="1" t="n">
+        <v>1868</v>
+      </c>
+      <c r="B1869" s="1" t="n">
+        <v>6016854561</v>
+      </c>
+      <c r="C1869" s="1" t="inlineStr">
+        <is>
+          <t>CHAL_Albina</t>
+        </is>
+      </c>
+      <c r="D1869" s="1" t="n"/>
+      <c r="E1869" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" s="1" t="n">
+        <v>1869</v>
+      </c>
+      <c r="B1870" s="1" t="n">
+        <v>5808054381</v>
+      </c>
+      <c r="C1870" s="1" t="inlineStr">
+        <is>
+          <t>valeriya_advprm</t>
+        </is>
+      </c>
+      <c r="D1870" s="1" t="n"/>
+      <c r="E1870" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" s="1" t="n">
+        <v>1870</v>
+      </c>
+      <c r="B1871" s="1" t="n">
+        <v>5480077798</v>
+      </c>
+      <c r="C1871" s="1" t="inlineStr">
+        <is>
+          <t>by_sigma</t>
+        </is>
+      </c>
+      <c r="D1871" s="1" t="n"/>
+      <c r="E1871" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" s="1" t="n">
+        <v>1871</v>
+      </c>
+      <c r="B1872" s="1" t="n">
+        <v>205133791</v>
+      </c>
+      <c r="C1872" s="1" t="inlineStr">
+        <is>
+          <t>dmitriy1234569</t>
+        </is>
+      </c>
+      <c r="D1872" s="1" t="n"/>
+      <c r="E1872" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" s="1" t="n">
+        <v>1872</v>
+      </c>
+      <c r="B1873" s="1" t="n">
+        <v>6131770846</v>
+      </c>
+      <c r="C1873" s="1" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D1873" s="1" t="n"/>
+      <c r="E1873" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" s="1" t="n">
+        <v>1873</v>
+      </c>
+      <c r="B1874" s="1" t="n">
+        <v>5465464160</v>
+      </c>
+      <c r="C1874" s="1" t="inlineStr">
+        <is>
+          <t>sanche_sss</t>
+        </is>
+      </c>
+      <c r="D1874" s="1" t="n"/>
+      <c r="E1874" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" s="1" t="n">
+        <v>1874</v>
+      </c>
+      <c r="B1875" s="1" t="n">
+        <v>6222592928</v>
+      </c>
+      <c r="C1875" s="1" t="inlineStr">
+        <is>
+          <t>trenertel18</t>
+        </is>
+      </c>
+      <c r="D1875" s="1" t="n"/>
+      <c r="E1875" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" s="1" t="n">
+        <v>1875</v>
+      </c>
+      <c r="B1876" s="1" t="n">
+        <v>6052979241</v>
+      </c>
+      <c r="C1876" s="1" t="inlineStr">
+        <is>
+          <t>artem_tgg</t>
+        </is>
+      </c>
+      <c r="D1876" s="1" t="n"/>
+      <c r="E1876" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" s="1" t="n">
+        <v>1876</v>
+      </c>
+      <c r="B1877" s="1" t="n">
+        <v>6227913068</v>
+      </c>
+      <c r="C1877" s="1" t="inlineStr">
+        <is>
+          <t>maserads</t>
+        </is>
+      </c>
+      <c r="D1877" s="1" t="n"/>
+      <c r="E1877" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" s="1" t="n">
+        <v>1877</v>
+      </c>
+      <c r="B1878" s="1" t="n">
+        <v>999580105</v>
+      </c>
+      <c r="C1878" s="1" t="inlineStr">
+        <is>
+          <t>java_0076</t>
+        </is>
+      </c>
+      <c r="D1878" s="1" t="n"/>
+      <c r="E1878" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" s="1" t="n">
+        <v>1878</v>
+      </c>
+      <c r="B1879" s="1" t="n">
+        <v>5043839688</v>
+      </c>
+      <c r="C1879" s="1" t="inlineStr">
+        <is>
+          <t>Admrek1</t>
+        </is>
+      </c>
+      <c r="D1879" s="1" t="n"/>
+      <c r="E1879" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" s="1" t="n">
+        <v>1879</v>
+      </c>
+      <c r="B1880" s="1" t="n">
+        <v>6050455260</v>
+      </c>
+      <c r="C1880" s="1" t="inlineStr">
+        <is>
+          <t>evgeniyadmzap</t>
+        </is>
+      </c>
+      <c r="D1880" s="1" t="n"/>
+      <c r="E1880" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" s="1" t="n">
+        <v>1880</v>
+      </c>
+      <c r="B1881" s="1" t="n">
+        <v>5351804246</v>
+      </c>
+      <c r="C1881" s="1" t="inlineStr">
+        <is>
+          <t>LawPareto</t>
+        </is>
+      </c>
+      <c r="D1881" s="1" t="n"/>
+      <c r="E1881" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" s="1" t="n">
+        <v>1881</v>
+      </c>
+      <c r="B1882" s="1" t="n">
+        <v>5746797154</v>
+      </c>
+      <c r="C1882" s="1" t="inlineStr">
+        <is>
+          <t>idtplayer</t>
+        </is>
+      </c>
+      <c r="D1882" s="1" t="n"/>
+      <c r="E1882" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" s="1" t="n">
+        <v>1882</v>
+      </c>
+      <c r="B1883" s="1" t="n">
+        <v>5478213604</v>
+      </c>
+      <c r="C1883" s="1" t="inlineStr">
+        <is>
+          <t>Moffitu</t>
+        </is>
+      </c>
+      <c r="D1883" s="1" t="n"/>
+      <c r="E1883" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" s="1" t="n">
+        <v>1883</v>
+      </c>
+      <c r="B1884" s="1" t="n">
+        <v>5953361412</v>
+      </c>
+      <c r="C1884" s="1" t="inlineStr">
+        <is>
+          <t>Bestwox</t>
+        </is>
+      </c>
+      <c r="D1884" s="1" t="n"/>
+      <c r="E1884" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" s="1" t="n">
+        <v>1884</v>
+      </c>
+      <c r="B1885" s="1" t="n">
+        <v>503914100</v>
+      </c>
+      <c r="C1885" s="1" t="inlineStr">
+        <is>
+          <t>cnnrpr</t>
+        </is>
+      </c>
+      <c r="D1885" s="1" t="n"/>
+      <c r="E1885" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" s="1" t="n">
+        <v>1885</v>
+      </c>
+      <c r="B1886" s="1" t="n">
+        <v>6079108220</v>
+      </c>
+      <c r="C1886" s="1" t="inlineStr">
+        <is>
+          <t>MaHa7eP1337</t>
+        </is>
+      </c>
+      <c r="D1886" s="1" t="n"/>
+      <c r="E1886" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" s="1" t="n">
+        <v>1886</v>
+      </c>
+      <c r="B1887" s="1" t="n">
+        <v>6107931520</v>
+      </c>
+      <c r="C1887" s="1" t="inlineStr">
+        <is>
+          <t>crypto_obmen_1</t>
+        </is>
+      </c>
+      <c r="D1887" s="1" t="n"/>
+      <c r="E1887" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" s="1" t="n">
+        <v>1887</v>
+      </c>
+      <c r="B1888" s="1" t="n">
+        <v>6036673476</v>
+      </c>
+      <c r="C1888" s="1" t="inlineStr">
+        <is>
+          <t>zakupka777</t>
+        </is>
+      </c>
+      <c r="D1888" s="1" t="n"/>
+      <c r="E1888" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" s="1" t="n">
+        <v>1888</v>
+      </c>
+      <c r="B1889" s="1" t="n">
+        <v>327192101</v>
+      </c>
+      <c r="C1889" s="1" t="inlineStr">
+        <is>
+          <t>NikiPow</t>
+        </is>
+      </c>
+      <c r="D1889" s="1" t="n"/>
+      <c r="E1889" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" s="1" t="n">
+        <v>1889</v>
+      </c>
+      <c r="B1890" s="1" t="n">
+        <v>827923001</v>
+      </c>
+      <c r="C1890" s="1" t="inlineStr">
+        <is>
+          <t>zzzakupp</t>
+        </is>
+      </c>
+      <c r="D1890" s="1" t="n"/>
+      <c r="E1890" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" s="1" t="n">
+        <v>1890</v>
+      </c>
+      <c r="B1891" s="1" t="n">
+        <v>6150994970</v>
+      </c>
+      <c r="C1891" s="1" t="inlineStr">
+        <is>
+          <t>fr1xa_1XS</t>
+        </is>
+      </c>
+      <c r="D1891" s="1" t="n"/>
+      <c r="E1891" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" s="1" t="n">
+        <v>1891</v>
+      </c>
+      <c r="B1892" s="1" t="n">
+        <v>5996602420</v>
+      </c>
+      <c r="C1892" s="1" t="inlineStr">
+        <is>
+          <t>acentum</t>
+        </is>
+      </c>
+      <c r="D1892" s="1" t="n"/>
+      <c r="E1892" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" s="1" t="n">
+        <v>1892</v>
+      </c>
+      <c r="B1893" s="1" t="n">
+        <v>6142477279</v>
+      </c>
+      <c r="C1893" s="1" t="inlineStr">
+        <is>
+          <t>petone_tg</t>
+        </is>
+      </c>
+      <c r="D1893" s="1" t="n"/>
+      <c r="E1893" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" s="1" t="n">
+        <v>1893</v>
+      </c>
+      <c r="B1894" s="1" t="n">
+        <v>6039061374</v>
+      </c>
+      <c r="C1894" s="1" t="inlineStr">
+        <is>
+          <t>elenaekb88</t>
+        </is>
+      </c>
+      <c r="D1894" s="1" t="n"/>
+      <c r="E1894" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" s="1" t="n">
+        <v>1894</v>
+      </c>
+      <c r="B1895" s="1" t="n">
+        <v>6035732052</v>
+      </c>
+      <c r="C1895" s="1" t="inlineStr">
+        <is>
+          <t>kpp_adm</t>
+        </is>
+      </c>
+      <c r="D1895" s="1" t="n"/>
+      <c r="E1895" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" s="1" t="n">
+        <v>1895</v>
+      </c>
+      <c r="B1896" s="1" t="n">
+        <v>1475259625</v>
+      </c>
+      <c r="C1896" s="1" t="inlineStr">
+        <is>
+          <t>DeputatSMM</t>
+        </is>
+      </c>
+      <c r="D1896" s="1" t="n"/>
+      <c r="E1896" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" s="1" t="n">
+        <v>1896</v>
+      </c>
+      <c r="B1897" s="1" t="n">
+        <v>6371139233</v>
+      </c>
+      <c r="C1897" s="1" t="inlineStr">
+        <is>
+          <t>nkkqt</t>
+        </is>
+      </c>
+      <c r="D1897" s="1" t="n"/>
+      <c r="E1897" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" s="1" t="n">
+        <v>1897</v>
+      </c>
+      <c r="B1898" s="1" t="n">
+        <v>6181356425</v>
+      </c>
+      <c r="C1898" s="1" t="inlineStr">
+        <is>
+          <t>asadilka</t>
+        </is>
+      </c>
+      <c r="D1898" s="1" t="n"/>
+      <c r="E1898" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" s="1" t="n">
+        <v>1898</v>
+      </c>
+      <c r="B1899" s="1" t="n">
+        <v>5176729712</v>
+      </c>
+      <c r="C1899" s="1" t="inlineStr">
+        <is>
+          <t>ultistop</t>
+        </is>
+      </c>
+      <c r="D1899" s="1" t="n"/>
+      <c r="E1899" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" s="1" t="n">
+        <v>1899</v>
+      </c>
+      <c r="B1900" s="1" t="n">
+        <v>6297949196</v>
+      </c>
+      <c r="C1900" s="1" t="inlineStr">
+        <is>
+          <t>HEISENBERG</t>
+        </is>
+      </c>
+      <c r="D1900" s="1" t="n"/>
+      <c r="E1900" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" s="1" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B1901" s="1" t="n">
+        <v>5812226443</v>
+      </c>
+      <c r="C1901" s="1" t="inlineStr">
+        <is>
+          <t>sergeiJS1</t>
+        </is>
+      </c>
+      <c r="D1901" s="1" t="n"/>
+      <c r="E1901" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" s="1" t="n">
+        <v>1901</v>
+      </c>
+      <c r="B1902" s="1" t="n">
+        <v>1686846368</v>
+      </c>
+      <c r="C1902" s="1" t="inlineStr">
+        <is>
+          <t>Starsheey</t>
+        </is>
+      </c>
+      <c r="D1902" s="1" t="n"/>
+      <c r="E1902" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" s="1" t="n">
+        <v>1902</v>
+      </c>
+      <c r="B1903" s="1" t="n">
+        <v>710121332</v>
+      </c>
+      <c r="C1903" s="1" t="inlineStr">
+        <is>
+          <t>Modelniy</t>
+        </is>
+      </c>
+      <c r="D1903" s="1" t="n"/>
+      <c r="E1903" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" s="1" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B1904" s="1" t="n">
+        <v>5814140118</v>
+      </c>
+      <c r="C1904" s="1" t="inlineStr">
+        <is>
+          <t>Goodbless88</t>
+        </is>
+      </c>
+      <c r="D1904" s="1" t="n"/>
+      <c r="E1904" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" s="1" t="n">
+        <v>1904</v>
+      </c>
+      <c r="B1905" s="1" t="n">
+        <v>1076085621</v>
+      </c>
+      <c r="C1905" s="1" t="inlineStr">
+        <is>
+          <t>avaqp</t>
+        </is>
+      </c>
+      <c r="D1905" s="1" t="n"/>
+      <c r="E1905" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" s="1" t="n">
+        <v>1905</v>
+      </c>
+      <c r="B1906" s="1" t="n">
+        <v>842852095</v>
+      </c>
+      <c r="C1906" s="1" t="inlineStr">
+        <is>
+          <t>foxyqp</t>
+        </is>
+      </c>
+      <c r="D1906" s="1" t="n"/>
+      <c r="E1906" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" s="1" t="n">
+        <v>1906</v>
+      </c>
+      <c r="B1907" s="1" t="n">
+        <v>5153077943</v>
+      </c>
+      <c r="C1907" s="1" t="inlineStr">
+        <is>
+          <t>LeraVirtOnli</t>
+        </is>
+      </c>
+      <c r="D1907" s="1" t="n"/>
+      <c r="E1907" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" s="1" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B1908" s="1" t="n">
+        <v>6097937331</v>
+      </c>
+      <c r="C1908" s="1" t="inlineStr">
+        <is>
+          <t>doncommerce</t>
+        </is>
+      </c>
+      <c r="D1908" s="1" t="n"/>
+      <c r="E1908" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" s="1" t="n">
+        <v>1908</v>
+      </c>
+      <c r="B1909" s="1" t="n">
+        <v>5275873525</v>
+      </c>
+      <c r="C1909" s="1" t="inlineStr">
+        <is>
+          <t>varvaIeron</t>
+        </is>
+      </c>
+      <c r="D1909" s="1" t="n"/>
+      <c r="E1909" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" s="1" t="n">
+        <v>1909</v>
+      </c>
+      <c r="B1910" s="1" t="n">
+        <v>6107658161</v>
+      </c>
+      <c r="C1910" s="1" t="inlineStr">
+        <is>
+          <t>Annetcometa</t>
+        </is>
+      </c>
+      <c r="D1910" s="1" t="n"/>
+      <c r="E1910" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" s="1" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B1911" s="1" t="n">
+        <v>6293724582</v>
+      </c>
+      <c r="C1911" s="1" t="inlineStr">
+        <is>
+          <t>annetiks</t>
+        </is>
+      </c>
+      <c r="D1911" s="1" t="n"/>
+      <c r="E1911" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" s="1" t="n">
+        <v>1911</v>
+      </c>
+      <c r="B1912" s="1" t="n">
+        <v>6604528833</v>
+      </c>
+      <c r="C1912" s="1" t="inlineStr">
+        <is>
+          <t>Kerilgarant</t>
+        </is>
+      </c>
+      <c r="D1912" s="1" t="n"/>
+      <c r="E1912" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" s="1" t="n">
+        <v>1912</v>
+      </c>
+      <c r="B1913" s="1" t="n">
+        <v>5969691394</v>
+      </c>
+      <c r="C1913" s="1" t="inlineStr">
+        <is>
+          <t>Tamarrrr8</t>
+        </is>
+      </c>
+      <c r="D1913" s="1" t="n"/>
+      <c r="E1913" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" s="1" t="n">
+        <v>1913</v>
+      </c>
+      <c r="B1914" s="1" t="n">
+        <v>6574180205</v>
+      </c>
+      <c r="C1914" s="1" t="inlineStr">
+        <is>
+          <t>Guess_yu</t>
+        </is>
+      </c>
+      <c r="D1914" s="1" t="n"/>
+      <c r="E1914" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" s="1" t="n">
+        <v>1914</v>
+      </c>
+      <c r="B1915" s="1" t="n">
+        <v>5060178869</v>
+      </c>
+      <c r="C1915" s="1" t="inlineStr">
+        <is>
+          <t>tg_media_admin</t>
+        </is>
+      </c>
+      <c r="D1915" s="1" t="n"/>
+      <c r="E1915" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" s="1" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B1916" s="1" t="n">
+        <v>6060246882</v>
+      </c>
+      <c r="C1916" s="1" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="D1916" s="1" t="n"/>
+      <c r="E1916" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" s="1" t="n">
+        <v>1916</v>
+      </c>
+      <c r="B1917" s="1" t="n">
+        <v>5818539224</v>
+      </c>
+      <c r="C1917" s="1" t="inlineStr">
+        <is>
+          <t>Гари Гаритсон</t>
+        </is>
+      </c>
+      <c r="D1917" s="1" t="n"/>
+      <c r="E1917" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" s="1" t="n">
+        <v>1917</v>
+      </c>
+      <c r="B1918" s="1" t="n">
+        <v>1718927240</v>
+      </c>
+      <c r="C1918" s="1" t="inlineStr">
+        <is>
+          <t>bdhd525</t>
+        </is>
+      </c>
+      <c r="D1918" s="1" t="n"/>
+      <c r="E1918" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" s="1" t="n">
+        <v>1918</v>
+      </c>
+      <c r="B1919" s="1" t="n">
+        <v>6297021260</v>
+      </c>
+      <c r="C1919" s="1" t="inlineStr">
+        <is>
+          <t>Rabotyaga77</t>
+        </is>
+      </c>
+      <c r="D1919" s="1" t="n"/>
+      <c r="E1919" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" s="1" t="n">
+        <v>1919</v>
+      </c>
+      <c r="B1920" s="1" t="n">
+        <v>6592484060</v>
+      </c>
+      <c r="C1920" s="1" t="inlineStr">
+        <is>
+          <t>bofnsn22</t>
+        </is>
+      </c>
+      <c r="D1920" s="1" t="n"/>
+      <c r="E1920" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" s="1" t="n">
+        <v>1920</v>
+      </c>
+      <c r="B1921" s="1" t="n">
+        <v>6015701117</v>
+      </c>
+      <c r="C1921" s="1" t="inlineStr">
+        <is>
+          <t>InsamAdm</t>
+        </is>
+      </c>
+      <c r="D1921" s="1" t="n"/>
+      <c r="E1921" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" s="1" t="n">
+        <v>1921</v>
+      </c>
+      <c r="B1922" s="1" t="n">
+        <v>5686562738</v>
+      </c>
+      <c r="C1922" s="1" t="inlineStr">
+        <is>
+          <t>iblackhot</t>
+        </is>
+      </c>
+      <c r="D1922" s="1" t="n"/>
+      <c r="E1922" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" s="1" t="n">
+        <v>1922</v>
+      </c>
+      <c r="B1923" s="1" t="n">
+        <v>5634504714</v>
+      </c>
+      <c r="C1923" s="1" t="inlineStr">
+        <is>
+          <t>scb_dd</t>
+        </is>
+      </c>
+      <c r="D1923" s="1" t="n"/>
+      <c r="E1923" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" s="1" t="n">
+        <v>1923</v>
+      </c>
+      <c r="B1924" s="1" t="n">
+        <v>895545937</v>
+      </c>
+      <c r="C1924" s="1" t="inlineStr">
+        <is>
+          <t>KukuruzaLeon</t>
+        </is>
+      </c>
+      <c r="D1924" s="1" t="n"/>
+      <c r="E1924" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" s="1" t="n">
+        <v>1924</v>
+      </c>
+      <c r="B1925" s="1" t="n">
+        <v>5161146617</v>
+      </c>
+      <c r="C1925" s="1" t="inlineStr">
+        <is>
+          <t>di_perignon</t>
+        </is>
+      </c>
+      <c r="D1925" s="1" t="n"/>
+      <c r="E1925" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" s="1" t="n">
+        <v>1925</v>
+      </c>
+      <c r="B1926" s="1" t="n">
+        <v>479548488</v>
+      </c>
+      <c r="C1926" s="1" t="inlineStr">
+        <is>
+          <t>raburik0</t>
+        </is>
+      </c>
+      <c r="D1926" s="1" t="n"/>
+      <c r="E1926" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" s="1" t="n">
+        <v>1926</v>
+      </c>
+      <c r="B1927" s="1" t="n">
+        <v>2035128931</v>
+      </c>
+      <c r="C1927" s="1" t="inlineStr">
+        <is>
+          <t>Zero636</t>
+        </is>
+      </c>
+      <c r="D1927" s="1" t="n"/>
+      <c r="E1927" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" s="1" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B1928" s="1" t="n">
+        <v>5919888545</v>
+      </c>
+      <c r="C1928" s="1" t="inlineStr">
+        <is>
+          <t>RS_MEDIA_GROUP7</t>
+        </is>
+      </c>
+      <c r="D1928" s="1" t="n"/>
+      <c r="E1928" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" s="1" t="n">
+        <v>1928</v>
+      </c>
+      <c r="B1929" s="1" t="n">
+        <v>5607039074</v>
+      </c>
+      <c r="C1929" s="1" t="inlineStr">
+        <is>
+          <t>kas_19911_kas</t>
+        </is>
+      </c>
+      <c r="D1929" s="1" t="n"/>
+      <c r="E1929" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" s="1" t="n">
+        <v>1929</v>
+      </c>
+      <c r="B1930" s="1" t="n">
+        <v>1215302342</v>
+      </c>
+      <c r="C1930" s="1" t="inlineStr">
+        <is>
+          <t>kaban_55</t>
+        </is>
+      </c>
+      <c r="D1930" s="1" t="n"/>
+      <c r="E1930" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" s="1" t="n">
+        <v>1930</v>
+      </c>
+      <c r="B1931" s="1" t="n">
+        <v>6700175270</v>
+      </c>
+      <c r="C1931" s="1" t="inlineStr">
+        <is>
+          <t>Permanent link</t>
+        </is>
+      </c>
+      <c r="D1931" s="1" t="n"/>
+      <c r="E1931" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" s="1" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B1932" s="1" t="n">
+        <v>6905344373</v>
+      </c>
+      <c r="C1932" s="1" t="inlineStr">
+        <is>
+          <t>RelaxRuslanTM</t>
+        </is>
+      </c>
+      <c r="D1932" s="1" t="n"/>
+      <c r="E1932" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" s="1" t="n">
+        <v>1932</v>
+      </c>
+      <c r="B1933" s="1" t="n">
+        <v>6523100387</v>
+      </c>
+      <c r="C1933" s="1" t="inlineStr">
+        <is>
+          <t>Jessie_commerce</t>
+        </is>
+      </c>
+      <c r="D1933" s="1" t="n"/>
+      <c r="E1933" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" s="1" t="n">
+        <v>1933</v>
+      </c>
+      <c r="B1934" s="1" t="n">
+        <v>6850418609</v>
+      </c>
+      <c r="C1934" s="1" t="inlineStr">
+        <is>
+          <t>Damncomerse</t>
+        </is>
+      </c>
+      <c r="D1934" s="1" t="n"/>
+      <c r="E1934" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" s="1" t="n">
+        <v>1934</v>
+      </c>
+      <c r="B1935" s="1" t="n">
+        <v>5241388622</v>
+      </c>
+      <c r="C1935" s="1" t="inlineStr">
+        <is>
+          <t>mushegdjan</t>
+        </is>
+      </c>
+      <c r="D1935" s="1" t="n"/>
+      <c r="E1935" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" s="1" t="n">
+        <v>1935</v>
+      </c>
+      <c r="B1936" s="1" t="n">
+        <v>948319514</v>
+      </c>
+      <c r="C1936" s="1" t="inlineStr">
+        <is>
+          <t>v1sual_tg</t>
+        </is>
+      </c>
+      <c r="D1936" s="1" t="n"/>
+      <c r="E1936" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" s="1" t="n">
+        <v>1936</v>
+      </c>
+      <c r="B1937" s="1" t="n">
+        <v>954439550</v>
+      </c>
+      <c r="C1937" s="1" t="inlineStr">
+        <is>
+          <t>nursgl</t>
+        </is>
+      </c>
+      <c r="D1937" s="1" t="n"/>
+      <c r="E1937" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" s="1" t="n">
+        <v>1937</v>
+      </c>
+      <c r="B1938" s="1" t="n">
+        <v>6932536245</v>
+      </c>
+      <c r="C1938" s="1" t="inlineStr">
+        <is>
+          <t>rekrutdd</t>
+        </is>
+      </c>
+      <c r="D1938" s="1" t="n"/>
+      <c r="E1938" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B1939" s="1" t="n">
+        <v>1719021912</v>
+      </c>
+      <c r="C1939" s="1" t="inlineStr">
+        <is>
+          <t>shaggy_rodgers</t>
+        </is>
+      </c>
+      <c r="D1939" s="1" t="n"/>
+      <c r="E1939" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" s="1" t="n">
+        <v>1939</v>
+      </c>
+      <c r="B1940" s="1" t="n">
+        <v>6702362732</v>
+      </c>
+      <c r="C1940" s="1" t="inlineStr">
+        <is>
+          <t>moderatortk</t>
+        </is>
+      </c>
+      <c r="D1940" s="1" t="n"/>
+      <c r="E1940" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" s="1" t="n">
+        <v>1940</v>
+      </c>
+      <c r="B1941" s="1" t="n">
+        <v>2097765187</v>
+      </c>
+      <c r="C1941" s="1" t="n"/>
+      <c r="D1941" s="1" t="n"/>
+      <c r="E1941" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" s="1" t="n">
+        <v>1941</v>
+      </c>
+      <c r="B1942" s="1" t="n">
+        <v>1567066355</v>
+      </c>
+      <c r="C1942" s="1" t="inlineStr">
+        <is>
+          <t>reazonvan</t>
+        </is>
+      </c>
+      <c r="D1942" s="1" t="n"/>
+      <c r="E1942" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" s="1" t="n">
+        <v>1942</v>
+      </c>
+      <c r="B1943" s="1" t="n">
+        <v>6930043084</v>
+      </c>
+      <c r="C1943" s="1" t="inlineStr">
+        <is>
+          <t>parse_post</t>
+        </is>
+      </c>
+      <c r="D1943" s="1" t="n"/>
+      <c r="E1943" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" s="1" t="n">
+        <v>1943</v>
+      </c>
+      <c r="B1944" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="C1944" s="1" t="inlineStr">
+        <is>
+          <t>parse_post</t>
+        </is>
+      </c>
+      <c r="D1944" s="1" t="n"/>
+      <c r="E1944" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" s="1" t="n">
+        <v>1944</v>
+      </c>
+      <c r="B1945" s="1" t="n">
+        <v>-1001980121193</v>
+      </c>
+      <c r="C1945" s="1" t="n"/>
+      <c r="D1945" s="1" t="n"/>
+      <c r="E1945" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Список скамеров.xlsx
+++ b/Список скамеров.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1945"/>
+  <dimension ref="A1:E1994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     <col width="9" customWidth="1" min="1" max="1"/>
     <col width="19" customWidth="1" min="2" max="2"/>
     <col width="33" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -34173,11 +34173,11 @@
         <v>1774</v>
       </c>
       <c r="B1775" s="1" t="n">
-        <v>6989448643</v>
+        <v>6676148103</v>
       </c>
       <c r="C1775" s="1" t="inlineStr">
         <is>
-          <t>ItovAsker</t>
+          <t>apogolia_tg</t>
         </is>
       </c>
       <c r="D1775" s="1" t="n"/>
@@ -34192,11 +34192,11 @@
         <v>1775</v>
       </c>
       <c r="B1776" s="1" t="n">
-        <v>6676148103</v>
+        <v>6700745793</v>
       </c>
       <c r="C1776" s="1" t="inlineStr">
         <is>
-          <t>apogolia_tg</t>
+          <t>HoJIodok</t>
         </is>
       </c>
       <c r="D1776" s="1" t="n"/>
@@ -34211,11 +34211,11 @@
         <v>1776</v>
       </c>
       <c r="B1777" s="1" t="n">
-        <v>6700745793</v>
+        <v>5831483657</v>
       </c>
       <c r="C1777" s="1" t="inlineStr">
         <is>
-          <t>HoJIodok</t>
+          <t>Nbahjjj</t>
         </is>
       </c>
       <c r="D1777" s="1" t="n"/>
@@ -34230,11 +34230,11 @@
         <v>1777</v>
       </c>
       <c r="B1778" s="1" t="n">
-        <v>5831483657</v>
+        <v>6041416147</v>
       </c>
       <c r="C1778" s="1" t="inlineStr">
         <is>
-          <t>Nbahjjj</t>
+          <t>HeLFiTaga</t>
         </is>
       </c>
       <c r="D1778" s="1" t="n"/>
@@ -34249,11 +34249,11 @@
         <v>1778</v>
       </c>
       <c r="B1779" s="1" t="n">
-        <v>6041416147</v>
+        <v>6905261857</v>
       </c>
       <c r="C1779" s="1" t="inlineStr">
         <is>
-          <t>HeLFiTaga</t>
+          <t>Djhb68</t>
         </is>
       </c>
       <c r="D1779" s="1" t="n"/>
@@ -34268,11 +34268,11 @@
         <v>1779</v>
       </c>
       <c r="B1780" s="1" t="n">
-        <v>6905261857</v>
+        <v>6765457261</v>
       </c>
       <c r="C1780" s="1" t="inlineStr">
         <is>
-          <t>Djhb68</t>
+          <t>garantdte</t>
         </is>
       </c>
       <c r="D1780" s="1" t="n"/>
@@ -34287,11 +34287,11 @@
         <v>1780</v>
       </c>
       <c r="B1781" s="1" t="n">
-        <v>6765457261</v>
+        <v>5870573564</v>
       </c>
       <c r="C1781" s="1" t="inlineStr">
         <is>
-          <t>garantdte</t>
+          <t>sa_egorik</t>
         </is>
       </c>
       <c r="D1781" s="1" t="n"/>
@@ -34306,11 +34306,11 @@
         <v>1781</v>
       </c>
       <c r="B1782" s="1" t="n">
-        <v>5870573564</v>
+        <v>6775402896</v>
       </c>
       <c r="C1782" s="1" t="inlineStr">
         <is>
-          <t>sa_egorik</t>
+          <t>bigboybonga</t>
         </is>
       </c>
       <c r="D1782" s="1" t="n"/>
@@ -34325,11 +34325,11 @@
         <v>1782</v>
       </c>
       <c r="B1783" s="1" t="n">
-        <v>6775402896</v>
+        <v>6350015263</v>
       </c>
       <c r="C1783" s="1" t="inlineStr">
         <is>
-          <t>bigboybonga</t>
+          <t>Estge1</t>
         </is>
       </c>
       <c r="D1783" s="1" t="n"/>
@@ -34344,11 +34344,11 @@
         <v>1783</v>
       </c>
       <c r="B1784" s="1" t="n">
-        <v>6350015263</v>
+        <v>6911355043</v>
       </c>
       <c r="C1784" s="1" t="inlineStr">
         <is>
-          <t>Estge1</t>
+          <t>Maniac_beyonce</t>
         </is>
       </c>
       <c r="D1784" s="1" t="n"/>
@@ -34363,11 +34363,11 @@
         <v>1784</v>
       </c>
       <c r="B1785" s="1" t="n">
-        <v>6911355043</v>
+        <v>2096373306</v>
       </c>
       <c r="C1785" s="1" t="inlineStr">
         <is>
-          <t>Maniac_beyonce</t>
+          <t>Angellaaa_3</t>
         </is>
       </c>
       <c r="D1785" s="1" t="n"/>
@@ -34382,11 +34382,11 @@
         <v>1785</v>
       </c>
       <c r="B1786" s="1" t="n">
-        <v>2096373306</v>
+        <v>6518548381</v>
       </c>
       <c r="C1786" s="1" t="inlineStr">
         <is>
-          <t>Angellaaa_3</t>
+          <t>Korneev9197</t>
         </is>
       </c>
       <c r="D1786" s="1" t="n"/>
@@ -34401,11 +34401,11 @@
         <v>1786</v>
       </c>
       <c r="B1787" s="1" t="n">
-        <v>6518548381</v>
+        <v>6699616375</v>
       </c>
       <c r="C1787" s="1" t="inlineStr">
         <is>
-          <t>Korneev9197</t>
+          <t>StounSD</t>
         </is>
       </c>
       <c r="D1787" s="1" t="n"/>
@@ -34420,11 +34420,11 @@
         <v>1787</v>
       </c>
       <c r="B1788" s="1" t="n">
-        <v>6699616375</v>
+        <v>5896434553</v>
       </c>
       <c r="C1788" s="1" t="inlineStr">
         <is>
-          <t>StounSD</t>
+          <t>guechuIo_garant</t>
         </is>
       </c>
       <c r="D1788" s="1" t="n"/>
@@ -34439,11 +34439,11 @@
         <v>1788</v>
       </c>
       <c r="B1789" s="1" t="n">
-        <v>5896434553</v>
+        <v>6651178127</v>
       </c>
       <c r="C1789" s="1" t="inlineStr">
         <is>
-          <t>guechuIo_garant</t>
+          <t>Vicany</t>
         </is>
       </c>
       <c r="D1789" s="1" t="n"/>
@@ -34458,11 +34458,11 @@
         <v>1789</v>
       </c>
       <c r="B1790" s="1" t="n">
-        <v>6651178127</v>
+        <v>6644773181</v>
       </c>
       <c r="C1790" s="1" t="inlineStr">
         <is>
-          <t>Vicany</t>
+          <t>Kamly_work</t>
         </is>
       </c>
       <c r="D1790" s="1" t="n"/>
@@ -34477,11 +34477,11 @@
         <v>1790</v>
       </c>
       <c r="B1791" s="1" t="n">
-        <v>6644773181</v>
+        <v>6916453632</v>
       </c>
       <c r="C1791" s="1" t="inlineStr">
         <is>
-          <t>Kamly_work</t>
+          <t>Ad_Hoyt</t>
         </is>
       </c>
       <c r="D1791" s="1" t="n"/>
@@ -34496,11 +34496,11 @@
         <v>1791</v>
       </c>
       <c r="B1792" s="1" t="n">
-        <v>6916453632</v>
+        <v>2041025565</v>
       </c>
       <c r="C1792" s="1" t="inlineStr">
         <is>
-          <t>Ad_Hoyt</t>
+          <t>Stendfixplay22</t>
         </is>
       </c>
       <c r="D1792" s="1" t="n"/>
@@ -34515,11 +34515,11 @@
         <v>1792</v>
       </c>
       <c r="B1793" s="1" t="n">
-        <v>2041025565</v>
+        <v>5970165391</v>
       </c>
       <c r="C1793" s="1" t="inlineStr">
         <is>
-          <t>Stendfixplay22</t>
+          <t>magomedovaaa8</t>
         </is>
       </c>
       <c r="D1793" s="1" t="n"/>
@@ -34534,11 +34534,11 @@
         <v>1793</v>
       </c>
       <c r="B1794" s="1" t="n">
-        <v>5970165391</v>
+        <v>1360851637</v>
       </c>
       <c r="C1794" s="1" t="inlineStr">
         <is>
-          <t>magomedovaaa8</t>
+          <t>kumykovaaa</t>
         </is>
       </c>
       <c r="D1794" s="1" t="n"/>
@@ -34553,11 +34553,11 @@
         <v>1794</v>
       </c>
       <c r="B1795" s="1" t="n">
-        <v>1360851637</v>
+        <v>6498369411</v>
       </c>
       <c r="C1795" s="1" t="inlineStr">
         <is>
-          <t>kumykovaaa</t>
+          <t>terrorovskiy7</t>
         </is>
       </c>
       <c r="D1795" s="1" t="n"/>
@@ -34572,11 +34572,11 @@
         <v>1795</v>
       </c>
       <c r="B1796" s="1" t="n">
-        <v>6498369411</v>
+        <v>5364960180</v>
       </c>
       <c r="C1796" s="1" t="inlineStr">
         <is>
-          <t>terrorovskiy7</t>
+          <t>anapastt</t>
         </is>
       </c>
       <c r="D1796" s="1" t="n"/>
@@ -34591,11 +34591,11 @@
         <v>1796</v>
       </c>
       <c r="B1797" s="1" t="n">
-        <v>5364960180</v>
+        <v>6571711960</v>
       </c>
       <c r="C1797" s="1" t="inlineStr">
         <is>
-          <t>anapastt</t>
+          <t>garant_nikitaa</t>
         </is>
       </c>
       <c r="D1797" s="1" t="n"/>
@@ -34610,11 +34610,11 @@
         <v>1797</v>
       </c>
       <c r="B1798" s="1" t="n">
-        <v>6571711960</v>
+        <v>6846492112</v>
       </c>
       <c r="C1798" s="1" t="inlineStr">
         <is>
-          <t>garant_nikitaa</t>
+          <t>G555ttt</t>
         </is>
       </c>
       <c r="D1798" s="1" t="n"/>
@@ -34629,11 +34629,11 @@
         <v>1798</v>
       </c>
       <c r="B1799" s="1" t="n">
-        <v>6846492112</v>
+        <v>6315721416</v>
       </c>
       <c r="C1799" s="1" t="inlineStr">
         <is>
-          <t>G555ttt</t>
+          <t>koner_garant</t>
         </is>
       </c>
       <c r="D1799" s="1" t="n"/>
@@ -34648,11 +34648,11 @@
         <v>1799</v>
       </c>
       <c r="B1800" s="1" t="n">
-        <v>6315721416</v>
+        <v>6045215160</v>
       </c>
       <c r="C1800" s="1" t="inlineStr">
         <is>
-          <t>koner_garant</t>
+          <t>Alexander_Bonusl</t>
         </is>
       </c>
       <c r="D1800" s="1" t="n"/>
@@ -34667,11 +34667,11 @@
         <v>1800</v>
       </c>
       <c r="B1801" s="1" t="n">
-        <v>6045215160</v>
+        <v>6520801112</v>
       </c>
       <c r="C1801" s="1" t="inlineStr">
         <is>
-          <t>Alexander_Bonusl</t>
+          <t>PYPS_0</t>
         </is>
       </c>
       <c r="D1801" s="1" t="n"/>
@@ -34686,11 +34686,11 @@
         <v>1801</v>
       </c>
       <c r="B1802" s="1" t="n">
-        <v>6520801112</v>
+        <v>604863988</v>
       </c>
       <c r="C1802" s="1" t="inlineStr">
         <is>
-          <t>PYPS_0</t>
+          <t>so_0172</t>
         </is>
       </c>
       <c r="D1802" s="1" t="n"/>
@@ -34705,11 +34705,11 @@
         <v>1802</v>
       </c>
       <c r="B1803" s="1" t="n">
-        <v>604863988</v>
+        <v>5785853855</v>
       </c>
       <c r="C1803" s="1" t="inlineStr">
         <is>
-          <t>so_0172</t>
+          <t>dhvfoo</t>
         </is>
       </c>
       <c r="D1803" s="1" t="n"/>
@@ -34724,11 +34724,11 @@
         <v>1803</v>
       </c>
       <c r="B1804" s="1" t="n">
-        <v>5785853855</v>
+        <v>6416104266</v>
       </c>
       <c r="C1804" s="1" t="inlineStr">
         <is>
-          <t>dhvfoo</t>
+          <t>tolyan393</t>
         </is>
       </c>
       <c r="D1804" s="1" t="n"/>
@@ -34743,11 +34743,11 @@
         <v>1804</v>
       </c>
       <c r="B1805" s="1" t="n">
-        <v>6416104266</v>
+        <v>6940077172</v>
       </c>
       <c r="C1805" s="1" t="inlineStr">
         <is>
-          <t>tolyan393</t>
+          <t>kytrat</t>
         </is>
       </c>
       <c r="D1805" s="1" t="n"/>
@@ -34762,11 +34762,11 @@
         <v>1805</v>
       </c>
       <c r="B1806" s="1" t="n">
-        <v>6940077172</v>
+        <v>6879969434</v>
       </c>
       <c r="C1806" s="1" t="inlineStr">
         <is>
-          <t>kytrat</t>
+          <t>loveloveloveshs</t>
         </is>
       </c>
       <c r="D1806" s="1" t="n"/>
@@ -34781,11 +34781,11 @@
         <v>1806</v>
       </c>
       <c r="B1807" s="1" t="n">
-        <v>6879969434</v>
+        <v>6251863451</v>
       </c>
       <c r="C1807" s="1" t="inlineStr">
         <is>
-          <t>loveloveloveshs</t>
+          <t>Maksimm4i</t>
         </is>
       </c>
       <c r="D1807" s="1" t="n"/>
@@ -34800,11 +34800,11 @@
         <v>1807</v>
       </c>
       <c r="B1808" s="1" t="n">
-        <v>6251863451</v>
+        <v>6901654518</v>
       </c>
       <c r="C1808" s="1" t="inlineStr">
         <is>
-          <t>Maksimm4i</t>
+          <t>fdsdqwedqwd</t>
         </is>
       </c>
       <c r="D1808" s="1" t="n"/>
@@ -34819,11 +34819,11 @@
         <v>1808</v>
       </c>
       <c r="B1809" s="1" t="n">
-        <v>6901654518</v>
+        <v>6564199864</v>
       </c>
       <c r="C1809" s="1" t="inlineStr">
         <is>
-          <t>fdsdqwedqwd</t>
+          <t>po_voprosam_syda</t>
         </is>
       </c>
       <c r="D1809" s="1" t="n"/>
@@ -34838,11 +34838,11 @@
         <v>1809</v>
       </c>
       <c r="B1810" s="1" t="n">
-        <v>6564199864</v>
+        <v>5156899627</v>
       </c>
       <c r="C1810" s="1" t="inlineStr">
         <is>
-          <t>po_voprosam_syda</t>
+          <t>oreshyzy</t>
         </is>
       </c>
       <c r="D1810" s="1" t="n"/>
@@ -34857,11 +34857,11 @@
         <v>1810</v>
       </c>
       <c r="B1811" s="1" t="n">
-        <v>5156899627</v>
+        <v>1060379784</v>
       </c>
       <c r="C1811" s="1" t="inlineStr">
         <is>
-          <t>oreshyzy</t>
+          <t>Pirtic</t>
         </is>
       </c>
       <c r="D1811" s="1" t="n"/>
@@ -34876,11 +34876,11 @@
         <v>1811</v>
       </c>
       <c r="B1812" s="1" t="n">
-        <v>1060379784</v>
+        <v>6584286070</v>
       </c>
       <c r="C1812" s="1" t="inlineStr">
         <is>
-          <t>Pirtic</t>
+          <t>SC999AM</t>
         </is>
       </c>
       <c r="D1812" s="1" t="n"/>
@@ -34895,11 +34895,11 @@
         <v>1812</v>
       </c>
       <c r="B1813" s="1" t="n">
-        <v>6584286070</v>
+        <v>6808055158</v>
       </c>
       <c r="C1813" s="1" t="inlineStr">
         <is>
-          <t>SC999AM</t>
+          <t>sluga_vash</t>
         </is>
       </c>
       <c r="D1813" s="1" t="n"/>
@@ -34914,11 +34914,11 @@
         <v>1813</v>
       </c>
       <c r="B1814" s="1" t="n">
-        <v>6808055158</v>
+        <v>6233062110</v>
       </c>
       <c r="C1814" s="1" t="inlineStr">
         <is>
-          <t>sluga_vash</t>
+          <t>Mr_utenok</t>
         </is>
       </c>
       <c r="D1814" s="1" t="n"/>
@@ -34933,11 +34933,11 @@
         <v>1814</v>
       </c>
       <c r="B1815" s="1" t="n">
-        <v>6233062110</v>
+        <v>5319279234</v>
       </c>
       <c r="C1815" s="1" t="inlineStr">
         <is>
-          <t>Mr_utenok</t>
+          <t>homiscr</t>
         </is>
       </c>
       <c r="D1815" s="1" t="n"/>
@@ -34952,11 +34952,11 @@
         <v>1815</v>
       </c>
       <c r="B1816" s="1" t="n">
-        <v>5319279234</v>
+        <v>970768102</v>
       </c>
       <c r="C1816" s="1" t="inlineStr">
         <is>
-          <t>homiscr</t>
+          <t>mmmlllllllllllllllll</t>
         </is>
       </c>
       <c r="D1816" s="1" t="n"/>
@@ -34971,11 +34971,11 @@
         <v>1816</v>
       </c>
       <c r="B1817" s="1" t="n">
-        <v>970768102</v>
+        <v>1090001924</v>
       </c>
       <c r="C1817" s="1" t="inlineStr">
         <is>
-          <t>mmmlllllllllllllllll</t>
+          <t>doradurow</t>
         </is>
       </c>
       <c r="D1817" s="1" t="n"/>
@@ -34990,11 +34990,11 @@
         <v>1817</v>
       </c>
       <c r="B1818" s="1" t="n">
-        <v>1090001924</v>
+        <v>5614923234</v>
       </c>
       <c r="C1818" s="1" t="inlineStr">
         <is>
-          <t>doradurow</t>
+          <t>Bbdissoie</t>
         </is>
       </c>
       <c r="D1818" s="1" t="n"/>
@@ -35009,11 +35009,11 @@
         <v>1818</v>
       </c>
       <c r="B1819" s="1" t="n">
-        <v>5614923234</v>
+        <v>6151941447</v>
       </c>
       <c r="C1819" s="1" t="inlineStr">
         <is>
-          <t>Bbdissoie</t>
+          <t>ivAAnperez12</t>
         </is>
       </c>
       <c r="D1819" s="1" t="n"/>
@@ -35028,11 +35028,11 @@
         <v>1819</v>
       </c>
       <c r="B1820" s="1" t="n">
-        <v>6151941447</v>
+        <v>5510959561</v>
       </c>
       <c r="C1820" s="1" t="inlineStr">
         <is>
-          <t>ivAAnperez12</t>
+          <t>IzaVikqq</t>
         </is>
       </c>
       <c r="D1820" s="1" t="n"/>
@@ -35047,11 +35047,11 @@
         <v>1820</v>
       </c>
       <c r="B1821" s="1" t="n">
-        <v>5510959561</v>
+        <v>6577019121</v>
       </c>
       <c r="C1821" s="1" t="inlineStr">
         <is>
-          <t>IzaVikqq</t>
+          <t>Bogdannnnikk</t>
         </is>
       </c>
       <c r="D1821" s="1" t="n"/>
@@ -35066,11 +35066,11 @@
         <v>1821</v>
       </c>
       <c r="B1822" s="1" t="n">
-        <v>6577019121</v>
+        <v>5441337513</v>
       </c>
       <c r="C1822" s="1" t="inlineStr">
         <is>
-          <t>Bogdannnnikk</t>
+          <t>greigen</t>
         </is>
       </c>
       <c r="D1822" s="1" t="n"/>
@@ -35085,11 +35085,11 @@
         <v>1822</v>
       </c>
       <c r="B1823" s="1" t="n">
-        <v>5441337513</v>
+        <v>6847850892</v>
       </c>
       <c r="C1823" s="1" t="inlineStr">
         <is>
-          <t>greigen</t>
+          <t>amircafin</t>
         </is>
       </c>
       <c r="D1823" s="1" t="n"/>
@@ -35104,11 +35104,11 @@
         <v>1823</v>
       </c>
       <c r="B1824" s="1" t="n">
-        <v>6847850892</v>
+        <v>5782403697</v>
       </c>
       <c r="C1824" s="1" t="inlineStr">
         <is>
-          <t>amircafin</t>
+          <t>TUZCRD</t>
         </is>
       </c>
       <c r="D1824" s="1" t="n"/>
@@ -35123,11 +35123,11 @@
         <v>1824</v>
       </c>
       <c r="B1825" s="1" t="n">
-        <v>5782403697</v>
+        <v>6830623582</v>
       </c>
       <c r="C1825" s="1" t="inlineStr">
         <is>
-          <t>TUZCRD</t>
+          <t>keaudhidbd</t>
         </is>
       </c>
       <c r="D1825" s="1" t="n"/>
@@ -35142,11 +35142,11 @@
         <v>1825</v>
       </c>
       <c r="B1826" s="1" t="n">
-        <v>6830623582</v>
+        <v>5680591718</v>
       </c>
       <c r="C1826" s="1" t="inlineStr">
         <is>
-          <t>keaudhidbd</t>
+          <t>forzeszxc</t>
         </is>
       </c>
       <c r="D1826" s="1" t="n"/>
@@ -35161,11 +35161,11 @@
         <v>1826</v>
       </c>
       <c r="B1827" s="1" t="n">
-        <v>5680591718</v>
+        <v>6308761784</v>
       </c>
       <c r="C1827" s="1" t="inlineStr">
         <is>
-          <t>forzeszxc</t>
+          <t>skypkin</t>
         </is>
       </c>
       <c r="D1827" s="1" t="n"/>
@@ -35180,11 +35180,11 @@
         <v>1827</v>
       </c>
       <c r="B1828" s="1" t="n">
-        <v>6308761784</v>
+        <v>6591885838</v>
       </c>
       <c r="C1828" s="1" t="inlineStr">
         <is>
-          <t>skypkin</t>
+          <t>Franc_Tag</t>
         </is>
       </c>
       <c r="D1828" s="1" t="n"/>
@@ -35199,11 +35199,11 @@
         <v>1828</v>
       </c>
       <c r="B1829" s="1" t="n">
-        <v>6591885838</v>
+        <v>6436267259</v>
       </c>
       <c r="C1829" s="1" t="inlineStr">
         <is>
-          <t>Franc_Tag</t>
+          <t>mariaaa_my</t>
         </is>
       </c>
       <c r="D1829" s="1" t="n"/>
@@ -35218,11 +35218,11 @@
         <v>1829</v>
       </c>
       <c r="B1830" s="1" t="n">
-        <v>6436267259</v>
+        <v>5963482365</v>
       </c>
       <c r="C1830" s="1" t="inlineStr">
         <is>
-          <t>mariaaa_my</t>
+          <t>Zolotov_Tag</t>
         </is>
       </c>
       <c r="D1830" s="1" t="n"/>
@@ -35237,11 +35237,11 @@
         <v>1830</v>
       </c>
       <c r="B1831" s="1" t="n">
-        <v>5963482365</v>
+        <v>5244692720</v>
       </c>
       <c r="C1831" s="1" t="inlineStr">
         <is>
-          <t>Zolotov_Tag</t>
+          <t>Erofeev_orig</t>
         </is>
       </c>
       <c r="D1831" s="1" t="n"/>
@@ -35256,11 +35256,11 @@
         <v>1831</v>
       </c>
       <c r="B1832" s="1" t="n">
-        <v>5244692720</v>
+        <v>5394242057</v>
       </c>
       <c r="C1832" s="1" t="inlineStr">
         <is>
-          <t>Erofeev_orig</t>
+          <t>Laru108</t>
         </is>
       </c>
       <c r="D1832" s="1" t="n"/>
@@ -35275,11 +35275,11 @@
         <v>1832</v>
       </c>
       <c r="B1833" s="1" t="n">
-        <v>5394242057</v>
+        <v>5350204695</v>
       </c>
       <c r="C1833" s="1" t="inlineStr">
         <is>
-          <t>Laru108</t>
+          <t>beerplus</t>
         </is>
       </c>
       <c r="D1833" s="1" t="n"/>
@@ -35294,11 +35294,11 @@
         <v>1833</v>
       </c>
       <c r="B1834" s="1" t="n">
-        <v>5350204695</v>
+        <v>6967353367</v>
       </c>
       <c r="C1834" s="1" t="inlineStr">
         <is>
-          <t>beerplus</t>
+          <t>distraffic</t>
         </is>
       </c>
       <c r="D1834" s="1" t="n"/>
@@ -35313,11 +35313,11 @@
         <v>1834</v>
       </c>
       <c r="B1835" s="1" t="n">
-        <v>6967353367</v>
+        <v>1632115298</v>
       </c>
       <c r="C1835" s="1" t="inlineStr">
         <is>
-          <t>distraffic</t>
+          <t>gametmng</t>
         </is>
       </c>
       <c r="D1835" s="1" t="n"/>
@@ -35332,11 +35332,11 @@
         <v>1835</v>
       </c>
       <c r="B1836" s="1" t="n">
-        <v>1632115298</v>
+        <v>6524181754</v>
       </c>
       <c r="C1836" s="1" t="inlineStr">
         <is>
-          <t>gametmng</t>
+          <t>hrkrkejdxod</t>
         </is>
       </c>
       <c r="D1836" s="1" t="n"/>
@@ -35351,11 +35351,11 @@
         <v>1836</v>
       </c>
       <c r="B1837" s="1" t="n">
-        <v>6524181754</v>
+        <v>6646257849</v>
       </c>
       <c r="C1837" s="1" t="inlineStr">
         <is>
-          <t>hrkrkejdxod</t>
+          <t>qqweqqpp</t>
         </is>
       </c>
       <c r="D1837" s="1" t="n"/>
@@ -35370,11 +35370,11 @@
         <v>1837</v>
       </c>
       <c r="B1838" s="1" t="n">
-        <v>6646257849</v>
+        <v>6985171916</v>
       </c>
       <c r="C1838" s="1" t="inlineStr">
         <is>
-          <t>qqweqqpp</t>
+          <t>ivan4ik001</t>
         </is>
       </c>
       <c r="D1838" s="1" t="n"/>
@@ -35389,11 +35389,11 @@
         <v>1838</v>
       </c>
       <c r="B1839" s="1" t="n">
-        <v>6985171916</v>
+        <v>6650022321</v>
       </c>
       <c r="C1839" s="1" t="inlineStr">
         <is>
-          <t>ivan4ik001</t>
+          <t>MargesGarant</t>
         </is>
       </c>
       <c r="D1839" s="1" t="n"/>
@@ -35408,11 +35408,11 @@
         <v>1839</v>
       </c>
       <c r="B1840" s="1" t="n">
-        <v>6650022321</v>
+        <v>5943076381</v>
       </c>
       <c r="C1840" s="1" t="inlineStr">
         <is>
-          <t>MargesGarant</t>
+          <t>garantepopovlch</t>
         </is>
       </c>
       <c r="D1840" s="1" t="n"/>
@@ -35427,11 +35427,11 @@
         <v>1840</v>
       </c>
       <c r="B1841" s="1" t="n">
-        <v>5943076381</v>
+        <v>6424303069</v>
       </c>
       <c r="C1841" s="1" t="inlineStr">
         <is>
-          <t>garantepopovlch</t>
+          <t>disjjehehw</t>
         </is>
       </c>
       <c r="D1841" s="1" t="n"/>
@@ -35446,11 +35446,11 @@
         <v>1841</v>
       </c>
       <c r="B1842" s="1" t="n">
-        <v>6424303069</v>
+        <v>6706638248</v>
       </c>
       <c r="C1842" s="1" t="inlineStr">
         <is>
-          <t>disjjehehw</t>
+          <t>Nolgarant</t>
         </is>
       </c>
       <c r="D1842" s="1" t="n"/>
@@ -35465,11 +35465,11 @@
         <v>1842</v>
       </c>
       <c r="B1843" s="1" t="n">
-        <v>6706638248</v>
+        <v>1098743470</v>
       </c>
       <c r="C1843" s="1" t="inlineStr">
         <is>
-          <t>Nolgarant</t>
+          <t>Bombastik_w</t>
         </is>
       </c>
       <c r="D1843" s="1" t="n"/>
@@ -35484,11 +35484,11 @@
         <v>1843</v>
       </c>
       <c r="B1844" s="1" t="n">
-        <v>1098743470</v>
+        <v>6607599641</v>
       </c>
       <c r="C1844" s="1" t="inlineStr">
         <is>
-          <t>Bombastik_w</t>
+          <t>Nikiwd</t>
         </is>
       </c>
       <c r="D1844" s="1" t="n"/>
@@ -35503,11 +35503,11 @@
         <v>1844</v>
       </c>
       <c r="B1845" s="1" t="n">
-        <v>6607599641</v>
+        <v>5553558662</v>
       </c>
       <c r="C1845" s="1" t="inlineStr">
         <is>
-          <t>Nikiwd</t>
+          <t>Ksenia_Bardakova</t>
         </is>
       </c>
       <c r="D1845" s="1" t="n"/>
@@ -35522,11 +35522,11 @@
         <v>1845</v>
       </c>
       <c r="B1846" s="1" t="n">
-        <v>5553558662</v>
+        <v>5407151139</v>
       </c>
       <c r="C1846" s="1" t="inlineStr">
         <is>
-          <t>Ksenia_Bardakova</t>
+          <t>FISTING80</t>
         </is>
       </c>
       <c r="D1846" s="1" t="n"/>
@@ -35541,11 +35541,11 @@
         <v>1846</v>
       </c>
       <c r="B1847" s="1" t="n">
-        <v>5407151139</v>
+        <v>6601416904</v>
       </c>
       <c r="C1847" s="1" t="inlineStr">
         <is>
-          <t>FISTING80</t>
+          <t>ks_baibakov</t>
         </is>
       </c>
       <c r="D1847" s="1" t="n"/>
@@ -35560,11 +35560,11 @@
         <v>1847</v>
       </c>
       <c r="B1848" s="1" t="n">
-        <v>6601416904</v>
+        <v>6292652840</v>
       </c>
       <c r="C1848" s="1" t="inlineStr">
         <is>
-          <t>ks_baibakov</t>
+          <t>skypka_22</t>
         </is>
       </c>
       <c r="D1848" s="1" t="n"/>
@@ -35579,11 +35579,11 @@
         <v>1848</v>
       </c>
       <c r="B1849" s="1" t="n">
-        <v>6292652840</v>
+        <v>1423821209</v>
       </c>
       <c r="C1849" s="1" t="inlineStr">
         <is>
-          <t>skypka_22</t>
+          <t>sashainvait</t>
         </is>
       </c>
       <c r="D1849" s="1" t="n"/>
@@ -35598,11 +35598,11 @@
         <v>1849</v>
       </c>
       <c r="B1850" s="1" t="n">
-        <v>1423821209</v>
+        <v>6422728068</v>
       </c>
       <c r="C1850" s="1" t="inlineStr">
         <is>
-          <t>sashainvait</t>
+          <t>work8886</t>
         </is>
       </c>
       <c r="D1850" s="1" t="n"/>
@@ -35617,11 +35617,11 @@
         <v>1850</v>
       </c>
       <c r="B1851" s="1" t="n">
-        <v>6422728068</v>
+        <v>1474980040</v>
       </c>
       <c r="C1851" s="1" t="inlineStr">
         <is>
-          <t>work8886</t>
+          <t>maksim_2025</t>
         </is>
       </c>
       <c r="D1851" s="1" t="n"/>
@@ -35636,11 +35636,11 @@
         <v>1851</v>
       </c>
       <c r="B1852" s="1" t="n">
-        <v>1474980040</v>
+        <v>6955539563</v>
       </c>
       <c r="C1852" s="1" t="inlineStr">
         <is>
-          <t>maksim_2025</t>
+          <t>mel0ny23</t>
         </is>
       </c>
       <c r="D1852" s="1" t="n"/>
@@ -35655,11 +35655,11 @@
         <v>1852</v>
       </c>
       <c r="B1853" s="1" t="n">
-        <v>6955539563</v>
+        <v>5250874880</v>
       </c>
       <c r="C1853" s="1" t="inlineStr">
         <is>
-          <t>mel0ny23</t>
+          <t>advetrcoop</t>
         </is>
       </c>
       <c r="D1853" s="1" t="n"/>
@@ -35674,11 +35674,11 @@
         <v>1853</v>
       </c>
       <c r="B1854" s="1" t="n">
-        <v>5250874880</v>
+        <v>6279284821</v>
       </c>
       <c r="C1854" s="1" t="inlineStr">
         <is>
-          <t>advetrcoop</t>
+          <t>Cryptoswat</t>
         </is>
       </c>
       <c r="D1854" s="1" t="n"/>
@@ -35693,11 +35693,11 @@
         <v>1854</v>
       </c>
       <c r="B1855" s="1" t="n">
-        <v>6279284821</v>
+        <v>5524811492</v>
       </c>
       <c r="C1855" s="1" t="inlineStr">
         <is>
-          <t>Cryptoswat</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D1855" s="1" t="n"/>
@@ -35712,11 +35712,11 @@
         <v>1855</v>
       </c>
       <c r="B1856" s="1" t="n">
-        <v>5524811492</v>
+        <v>345870019</v>
       </c>
       <c r="C1856" s="1" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Mor940k</t>
         </is>
       </c>
       <c r="D1856" s="1" t="n"/>
@@ -35731,11 +35731,11 @@
         <v>1856</v>
       </c>
       <c r="B1857" s="1" t="n">
-        <v>345870019</v>
+        <v>709066769</v>
       </c>
       <c r="C1857" s="1" t="inlineStr">
         <is>
-          <t>Mor940k</t>
+          <t>alina_work01</t>
         </is>
       </c>
       <c r="D1857" s="1" t="n"/>
@@ -35750,11 +35750,11 @@
         <v>1857</v>
       </c>
       <c r="B1858" s="1" t="n">
-        <v>709066769</v>
+        <v>5926439007</v>
       </c>
       <c r="C1858" s="1" t="inlineStr">
         <is>
-          <t>alina_work01</t>
+          <t>andprouu</t>
         </is>
       </c>
       <c r="D1858" s="1" t="n"/>
@@ -35769,11 +35769,11 @@
         <v>1858</v>
       </c>
       <c r="B1859" s="1" t="n">
-        <v>5926439007</v>
+        <v>1991248257</v>
       </c>
       <c r="C1859" s="1" t="inlineStr">
         <is>
-          <t>andprouu</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D1859" s="1" t="n"/>
@@ -35788,11 +35788,11 @@
         <v>1859</v>
       </c>
       <c r="B1860" s="1" t="n">
-        <v>1991248257</v>
+        <v>5882577061</v>
       </c>
       <c r="C1860" s="1" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Nastaytrash</t>
         </is>
       </c>
       <c r="D1860" s="1" t="n"/>
@@ -35807,11 +35807,11 @@
         <v>1860</v>
       </c>
       <c r="B1861" s="1" t="n">
-        <v>5882577061</v>
+        <v>6140904386</v>
       </c>
       <c r="C1861" s="1" t="inlineStr">
         <is>
-          <t>Nastaytrash</t>
+          <t>geargodg</t>
         </is>
       </c>
       <c r="D1861" s="1" t="n"/>
@@ -35826,11 +35826,11 @@
         <v>1861</v>
       </c>
       <c r="B1862" s="1" t="n">
-        <v>6140904386</v>
+        <v>5825326695</v>
       </c>
       <c r="C1862" s="1" t="inlineStr">
         <is>
-          <t>geargodg</t>
+          <t>reborneta</t>
         </is>
       </c>
       <c r="D1862" s="1" t="n"/>
@@ -35845,11 +35845,11 @@
         <v>1862</v>
       </c>
       <c r="B1863" s="1" t="n">
-        <v>5825326695</v>
+        <v>5776169603</v>
       </c>
       <c r="C1863" s="1" t="inlineStr">
         <is>
-          <t>reborneta</t>
+          <t>pikmaestro</t>
         </is>
       </c>
       <c r="D1863" s="1" t="n"/>
@@ -35864,11 +35864,11 @@
         <v>1863</v>
       </c>
       <c r="B1864" s="1" t="n">
-        <v>5776169603</v>
+        <v>5793356100</v>
       </c>
       <c r="C1864" s="1" t="inlineStr">
         <is>
-          <t>pikmaestro</t>
+          <t>lukaryt</t>
         </is>
       </c>
       <c r="D1864" s="1" t="n"/>
@@ -35883,11 +35883,11 @@
         <v>1864</v>
       </c>
       <c r="B1865" s="1" t="n">
-        <v>5793356100</v>
+        <v>6052986554</v>
       </c>
       <c r="C1865" s="1" t="inlineStr">
         <is>
-          <t>lukaryt</t>
+          <t>lickpigdk</t>
         </is>
       </c>
       <c r="D1865" s="1" t="n"/>
@@ -35902,11 +35902,11 @@
         <v>1865</v>
       </c>
       <c r="B1866" s="1" t="n">
-        <v>6052986554</v>
+        <v>925503979</v>
       </c>
       <c r="C1866" s="1" t="inlineStr">
         <is>
-          <t>lickpigdk</t>
+          <t>Ypalvk</t>
         </is>
       </c>
       <c r="D1866" s="1" t="n"/>
@@ -35921,11 +35921,11 @@
         <v>1866</v>
       </c>
       <c r="B1867" s="1" t="n">
-        <v>925503979</v>
+        <v>5716441799</v>
       </c>
       <c r="C1867" s="1" t="inlineStr">
         <is>
-          <t>Ypalvk</t>
+          <t>KAZILFY</t>
         </is>
       </c>
       <c r="D1867" s="1" t="n"/>
@@ -35940,11 +35940,11 @@
         <v>1867</v>
       </c>
       <c r="B1868" s="1" t="n">
-        <v>5716441799</v>
+        <v>6016854561</v>
       </c>
       <c r="C1868" s="1" t="inlineStr">
         <is>
-          <t>KAZILFY</t>
+          <t>CHAL_Albina</t>
         </is>
       </c>
       <c r="D1868" s="1" t="n"/>
@@ -35959,11 +35959,11 @@
         <v>1868</v>
       </c>
       <c r="B1869" s="1" t="n">
-        <v>6016854561</v>
+        <v>5808054381</v>
       </c>
       <c r="C1869" s="1" t="inlineStr">
         <is>
-          <t>CHAL_Albina</t>
+          <t>valeriya_advprm</t>
         </is>
       </c>
       <c r="D1869" s="1" t="n"/>
@@ -35978,11 +35978,11 @@
         <v>1869</v>
       </c>
       <c r="B1870" s="1" t="n">
-        <v>5808054381</v>
+        <v>5480077798</v>
       </c>
       <c r="C1870" s="1" t="inlineStr">
         <is>
-          <t>valeriya_advprm</t>
+          <t>by_sigma</t>
         </is>
       </c>
       <c r="D1870" s="1" t="n"/>
@@ -35997,11 +35997,11 @@
         <v>1870</v>
       </c>
       <c r="B1871" s="1" t="n">
-        <v>5480077798</v>
+        <v>205133791</v>
       </c>
       <c r="C1871" s="1" t="inlineStr">
         <is>
-          <t>by_sigma</t>
+          <t>dmitriy1234569</t>
         </is>
       </c>
       <c r="D1871" s="1" t="n"/>
@@ -36016,11 +36016,11 @@
         <v>1871</v>
       </c>
       <c r="B1872" s="1" t="n">
-        <v>205133791</v>
+        <v>6131770846</v>
       </c>
       <c r="C1872" s="1" t="inlineStr">
         <is>
-          <t>dmitriy1234569</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D1872" s="1" t="n"/>
@@ -36035,11 +36035,11 @@
         <v>1872</v>
       </c>
       <c r="B1873" s="1" t="n">
-        <v>6131770846</v>
+        <v>5465464160</v>
       </c>
       <c r="C1873" s="1" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>sanche_sss</t>
         </is>
       </c>
       <c r="D1873" s="1" t="n"/>
@@ -36054,11 +36054,11 @@
         <v>1873</v>
       </c>
       <c r="B1874" s="1" t="n">
-        <v>5465464160</v>
+        <v>6222592928</v>
       </c>
       <c r="C1874" s="1" t="inlineStr">
         <is>
-          <t>sanche_sss</t>
+          <t>trenertel18</t>
         </is>
       </c>
       <c r="D1874" s="1" t="n"/>
@@ -36073,11 +36073,11 @@
         <v>1874</v>
       </c>
       <c r="B1875" s="1" t="n">
-        <v>6222592928</v>
+        <v>6052979241</v>
       </c>
       <c r="C1875" s="1" t="inlineStr">
         <is>
-          <t>trenertel18</t>
+          <t>artem_tgg</t>
         </is>
       </c>
       <c r="D1875" s="1" t="n"/>
@@ -36092,11 +36092,11 @@
         <v>1875</v>
       </c>
       <c r="B1876" s="1" t="n">
-        <v>6052979241</v>
+        <v>6227913068</v>
       </c>
       <c r="C1876" s="1" t="inlineStr">
         <is>
-          <t>artem_tgg</t>
+          <t>maserads</t>
         </is>
       </c>
       <c r="D1876" s="1" t="n"/>
@@ -36111,11 +36111,11 @@
         <v>1876</v>
       </c>
       <c r="B1877" s="1" t="n">
-        <v>6227913068</v>
+        <v>999580105</v>
       </c>
       <c r="C1877" s="1" t="inlineStr">
         <is>
-          <t>maserads</t>
+          <t>java_0076</t>
         </is>
       </c>
       <c r="D1877" s="1" t="n"/>
@@ -36130,11 +36130,11 @@
         <v>1877</v>
       </c>
       <c r="B1878" s="1" t="n">
-        <v>999580105</v>
+        <v>5043839688</v>
       </c>
       <c r="C1878" s="1" t="inlineStr">
         <is>
-          <t>java_0076</t>
+          <t>Admrek1</t>
         </is>
       </c>
       <c r="D1878" s="1" t="n"/>
@@ -36149,11 +36149,11 @@
         <v>1878</v>
       </c>
       <c r="B1879" s="1" t="n">
-        <v>5043839688</v>
+        <v>6050455260</v>
       </c>
       <c r="C1879" s="1" t="inlineStr">
         <is>
-          <t>Admrek1</t>
+          <t>evgeniyadmzap</t>
         </is>
       </c>
       <c r="D1879" s="1" t="n"/>
@@ -36168,11 +36168,11 @@
         <v>1879</v>
       </c>
       <c r="B1880" s="1" t="n">
-        <v>6050455260</v>
+        <v>5351804246</v>
       </c>
       <c r="C1880" s="1" t="inlineStr">
         <is>
-          <t>evgeniyadmzap</t>
+          <t>LawPareto</t>
         </is>
       </c>
       <c r="D1880" s="1" t="n"/>
@@ -36187,11 +36187,11 @@
         <v>1880</v>
       </c>
       <c r="B1881" s="1" t="n">
-        <v>5351804246</v>
+        <v>5746797154</v>
       </c>
       <c r="C1881" s="1" t="inlineStr">
         <is>
-          <t>LawPareto</t>
+          <t>idtplayer</t>
         </is>
       </c>
       <c r="D1881" s="1" t="n"/>
@@ -36206,11 +36206,11 @@
         <v>1881</v>
       </c>
       <c r="B1882" s="1" t="n">
-        <v>5746797154</v>
+        <v>5478213604</v>
       </c>
       <c r="C1882" s="1" t="inlineStr">
         <is>
-          <t>idtplayer</t>
+          <t>Moffitu</t>
         </is>
       </c>
       <c r="D1882" s="1" t="n"/>
@@ -36225,11 +36225,11 @@
         <v>1882</v>
       </c>
       <c r="B1883" s="1" t="n">
-        <v>5478213604</v>
+        <v>5953361412</v>
       </c>
       <c r="C1883" s="1" t="inlineStr">
         <is>
-          <t>Moffitu</t>
+          <t>Bestwox</t>
         </is>
       </c>
       <c r="D1883" s="1" t="n"/>
@@ -36244,11 +36244,11 @@
         <v>1883</v>
       </c>
       <c r="B1884" s="1" t="n">
-        <v>5953361412</v>
+        <v>503914100</v>
       </c>
       <c r="C1884" s="1" t="inlineStr">
         <is>
-          <t>Bestwox</t>
+          <t>cnnrpr</t>
         </is>
       </c>
       <c r="D1884" s="1" t="n"/>
@@ -36263,11 +36263,11 @@
         <v>1884</v>
       </c>
       <c r="B1885" s="1" t="n">
-        <v>503914100</v>
+        <v>6079108220</v>
       </c>
       <c r="C1885" s="1" t="inlineStr">
         <is>
-          <t>cnnrpr</t>
+          <t>MaHa7eP1337</t>
         </is>
       </c>
       <c r="D1885" s="1" t="n"/>
@@ -36282,11 +36282,11 @@
         <v>1885</v>
       </c>
       <c r="B1886" s="1" t="n">
-        <v>6079108220</v>
+        <v>6107931520</v>
       </c>
       <c r="C1886" s="1" t="inlineStr">
         <is>
-          <t>MaHa7eP1337</t>
+          <t>crypto_obmen_1</t>
         </is>
       </c>
       <c r="D1886" s="1" t="n"/>
@@ -36301,11 +36301,11 @@
         <v>1886</v>
       </c>
       <c r="B1887" s="1" t="n">
-        <v>6107931520</v>
+        <v>6036673476</v>
       </c>
       <c r="C1887" s="1" t="inlineStr">
         <is>
-          <t>crypto_obmen_1</t>
+          <t>zakupka777</t>
         </is>
       </c>
       <c r="D1887" s="1" t="n"/>
@@ -36320,11 +36320,11 @@
         <v>1887</v>
       </c>
       <c r="B1888" s="1" t="n">
-        <v>6036673476</v>
+        <v>327192101</v>
       </c>
       <c r="C1888" s="1" t="inlineStr">
         <is>
-          <t>zakupka777</t>
+          <t>NikiPow</t>
         </is>
       </c>
       <c r="D1888" s="1" t="n"/>
@@ -36339,11 +36339,11 @@
         <v>1888</v>
       </c>
       <c r="B1889" s="1" t="n">
-        <v>327192101</v>
+        <v>827923001</v>
       </c>
       <c r="C1889" s="1" t="inlineStr">
         <is>
-          <t>NikiPow</t>
+          <t>zzzakupp</t>
         </is>
       </c>
       <c r="D1889" s="1" t="n"/>
@@ -36358,11 +36358,11 @@
         <v>1889</v>
       </c>
       <c r="B1890" s="1" t="n">
-        <v>827923001</v>
+        <v>6150994970</v>
       </c>
       <c r="C1890" s="1" t="inlineStr">
         <is>
-          <t>zzzakupp</t>
+          <t>fr1xa_1XS</t>
         </is>
       </c>
       <c r="D1890" s="1" t="n"/>
@@ -36377,11 +36377,11 @@
         <v>1890</v>
       </c>
       <c r="B1891" s="1" t="n">
-        <v>6150994970</v>
+        <v>5996602420</v>
       </c>
       <c r="C1891" s="1" t="inlineStr">
         <is>
-          <t>fr1xa_1XS</t>
+          <t>acentum</t>
         </is>
       </c>
       <c r="D1891" s="1" t="n"/>
@@ -36396,11 +36396,11 @@
         <v>1891</v>
       </c>
       <c r="B1892" s="1" t="n">
-        <v>5996602420</v>
+        <v>6142477279</v>
       </c>
       <c r="C1892" s="1" t="inlineStr">
         <is>
-          <t>acentum</t>
+          <t>petone_tg</t>
         </is>
       </c>
       <c r="D1892" s="1" t="n"/>
@@ -36415,11 +36415,11 @@
         <v>1892</v>
       </c>
       <c r="B1893" s="1" t="n">
-        <v>6142477279</v>
+        <v>6039061374</v>
       </c>
       <c r="C1893" s="1" t="inlineStr">
         <is>
-          <t>petone_tg</t>
+          <t>elenaekb88</t>
         </is>
       </c>
       <c r="D1893" s="1" t="n"/>
@@ -36434,11 +36434,11 @@
         <v>1893</v>
       </c>
       <c r="B1894" s="1" t="n">
-        <v>6039061374</v>
+        <v>6035732052</v>
       </c>
       <c r="C1894" s="1" t="inlineStr">
         <is>
-          <t>elenaekb88</t>
+          <t>kpp_adm</t>
         </is>
       </c>
       <c r="D1894" s="1" t="n"/>
@@ -36453,11 +36453,11 @@
         <v>1894</v>
       </c>
       <c r="B1895" s="1" t="n">
-        <v>6035732052</v>
+        <v>1475259625</v>
       </c>
       <c r="C1895" s="1" t="inlineStr">
         <is>
-          <t>kpp_adm</t>
+          <t>DeputatSMM</t>
         </is>
       </c>
       <c r="D1895" s="1" t="n"/>
@@ -36472,11 +36472,11 @@
         <v>1895</v>
       </c>
       <c r="B1896" s="1" t="n">
-        <v>1475259625</v>
+        <v>6371139233</v>
       </c>
       <c r="C1896" s="1" t="inlineStr">
         <is>
-          <t>DeputatSMM</t>
+          <t>nkkqt</t>
         </is>
       </c>
       <c r="D1896" s="1" t="n"/>
@@ -36491,11 +36491,11 @@
         <v>1896</v>
       </c>
       <c r="B1897" s="1" t="n">
-        <v>6371139233</v>
+        <v>6181356425</v>
       </c>
       <c r="C1897" s="1" t="inlineStr">
         <is>
-          <t>nkkqt</t>
+          <t>asadilka</t>
         </is>
       </c>
       <c r="D1897" s="1" t="n"/>
@@ -36510,11 +36510,11 @@
         <v>1897</v>
       </c>
       <c r="B1898" s="1" t="n">
-        <v>6181356425</v>
+        <v>5176729712</v>
       </c>
       <c r="C1898" s="1" t="inlineStr">
         <is>
-          <t>asadilka</t>
+          <t>ultistop</t>
         </is>
       </c>
       <c r="D1898" s="1" t="n"/>
@@ -36529,11 +36529,11 @@
         <v>1898</v>
       </c>
       <c r="B1899" s="1" t="n">
-        <v>5176729712</v>
+        <v>6297949196</v>
       </c>
       <c r="C1899" s="1" t="inlineStr">
         <is>
-          <t>ultistop</t>
+          <t>HEISENBERG</t>
         </is>
       </c>
       <c r="D1899" s="1" t="n"/>
@@ -36548,11 +36548,11 @@
         <v>1899</v>
       </c>
       <c r="B1900" s="1" t="n">
-        <v>6297949196</v>
+        <v>5812226443</v>
       </c>
       <c r="C1900" s="1" t="inlineStr">
         <is>
-          <t>HEISENBERG</t>
+          <t>sergeiJS1</t>
         </is>
       </c>
       <c r="D1900" s="1" t="n"/>
@@ -36567,11 +36567,11 @@
         <v>1900</v>
       </c>
       <c r="B1901" s="1" t="n">
-        <v>5812226443</v>
+        <v>1686846368</v>
       </c>
       <c r="C1901" s="1" t="inlineStr">
         <is>
-          <t>sergeiJS1</t>
+          <t>Starsheey</t>
         </is>
       </c>
       <c r="D1901" s="1" t="n"/>
@@ -36586,11 +36586,11 @@
         <v>1901</v>
       </c>
       <c r="B1902" s="1" t="n">
-        <v>1686846368</v>
+        <v>710121332</v>
       </c>
       <c r="C1902" s="1" t="inlineStr">
         <is>
-          <t>Starsheey</t>
+          <t>Modelniy</t>
         </is>
       </c>
       <c r="D1902" s="1" t="n"/>
@@ -36605,11 +36605,11 @@
         <v>1902</v>
       </c>
       <c r="B1903" s="1" t="n">
-        <v>710121332</v>
+        <v>5814140118</v>
       </c>
       <c r="C1903" s="1" t="inlineStr">
         <is>
-          <t>Modelniy</t>
+          <t>Goodbless88</t>
         </is>
       </c>
       <c r="D1903" s="1" t="n"/>
@@ -36624,11 +36624,11 @@
         <v>1903</v>
       </c>
       <c r="B1904" s="1" t="n">
-        <v>5814140118</v>
+        <v>1076085621</v>
       </c>
       <c r="C1904" s="1" t="inlineStr">
         <is>
-          <t>Goodbless88</t>
+          <t>avaqp</t>
         </is>
       </c>
       <c r="D1904" s="1" t="n"/>
@@ -36643,11 +36643,11 @@
         <v>1904</v>
       </c>
       <c r="B1905" s="1" t="n">
-        <v>1076085621</v>
+        <v>842852095</v>
       </c>
       <c r="C1905" s="1" t="inlineStr">
         <is>
-          <t>avaqp</t>
+          <t>foxyqp</t>
         </is>
       </c>
       <c r="D1905" s="1" t="n"/>
@@ -36662,11 +36662,11 @@
         <v>1905</v>
       </c>
       <c r="B1906" s="1" t="n">
-        <v>842852095</v>
+        <v>5153077943</v>
       </c>
       <c r="C1906" s="1" t="inlineStr">
         <is>
-          <t>foxyqp</t>
+          <t>LeraVirtOnli</t>
         </is>
       </c>
       <c r="D1906" s="1" t="n"/>
@@ -36681,11 +36681,11 @@
         <v>1906</v>
       </c>
       <c r="B1907" s="1" t="n">
-        <v>5153077943</v>
+        <v>6097937331</v>
       </c>
       <c r="C1907" s="1" t="inlineStr">
         <is>
-          <t>LeraVirtOnli</t>
+          <t>doncommerce</t>
         </is>
       </c>
       <c r="D1907" s="1" t="n"/>
@@ -36700,11 +36700,11 @@
         <v>1907</v>
       </c>
       <c r="B1908" s="1" t="n">
-        <v>6097937331</v>
+        <v>5275873525</v>
       </c>
       <c r="C1908" s="1" t="inlineStr">
         <is>
-          <t>doncommerce</t>
+          <t>varvaIeron</t>
         </is>
       </c>
       <c r="D1908" s="1" t="n"/>
@@ -36719,11 +36719,11 @@
         <v>1908</v>
       </c>
       <c r="B1909" s="1" t="n">
-        <v>5275873525</v>
+        <v>6107658161</v>
       </c>
       <c r="C1909" s="1" t="inlineStr">
         <is>
-          <t>varvaIeron</t>
+          <t>Annetcometa</t>
         </is>
       </c>
       <c r="D1909" s="1" t="n"/>
@@ -36738,11 +36738,11 @@
         <v>1909</v>
       </c>
       <c r="B1910" s="1" t="n">
-        <v>6107658161</v>
+        <v>6293724582</v>
       </c>
       <c r="C1910" s="1" t="inlineStr">
         <is>
-          <t>Annetcometa</t>
+          <t>annetiks</t>
         </is>
       </c>
       <c r="D1910" s="1" t="n"/>
@@ -36757,11 +36757,11 @@
         <v>1910</v>
       </c>
       <c r="B1911" s="1" t="n">
-        <v>6293724582</v>
+        <v>6604528833</v>
       </c>
       <c r="C1911" s="1" t="inlineStr">
         <is>
-          <t>annetiks</t>
+          <t>Kerilgarant</t>
         </is>
       </c>
       <c r="D1911" s="1" t="n"/>
@@ -36776,11 +36776,11 @@
         <v>1911</v>
       </c>
       <c r="B1912" s="1" t="n">
-        <v>6604528833</v>
+        <v>5969691394</v>
       </c>
       <c r="C1912" s="1" t="inlineStr">
         <is>
-          <t>Kerilgarant</t>
+          <t>Tamarrrr8</t>
         </is>
       </c>
       <c r="D1912" s="1" t="n"/>
@@ -36795,11 +36795,11 @@
         <v>1912</v>
       </c>
       <c r="B1913" s="1" t="n">
-        <v>5969691394</v>
+        <v>6574180205</v>
       </c>
       <c r="C1913" s="1" t="inlineStr">
         <is>
-          <t>Tamarrrr8</t>
+          <t>Guess_yu</t>
         </is>
       </c>
       <c r="D1913" s="1" t="n"/>
@@ -36814,11 +36814,11 @@
         <v>1913</v>
       </c>
       <c r="B1914" s="1" t="n">
-        <v>6574180205</v>
+        <v>5060178869</v>
       </c>
       <c r="C1914" s="1" t="inlineStr">
         <is>
-          <t>Guess_yu</t>
+          <t>tg_media_admin</t>
         </is>
       </c>
       <c r="D1914" s="1" t="n"/>
@@ -36833,11 +36833,11 @@
         <v>1914</v>
       </c>
       <c r="B1915" s="1" t="n">
-        <v>5060178869</v>
+        <v>6060246882</v>
       </c>
       <c r="C1915" s="1" t="inlineStr">
         <is>
-          <t>tg_media_admin</t>
+          <t>Deadline</t>
         </is>
       </c>
       <c r="D1915" s="1" t="n"/>
@@ -36852,11 +36852,11 @@
         <v>1915</v>
       </c>
       <c r="B1916" s="1" t="n">
-        <v>6060246882</v>
+        <v>5818539224</v>
       </c>
       <c r="C1916" s="1" t="inlineStr">
         <is>
-          <t>Deadline</t>
+          <t>Гари Гаритсон</t>
         </is>
       </c>
       <c r="D1916" s="1" t="n"/>
@@ -36871,11 +36871,11 @@
         <v>1916</v>
       </c>
       <c r="B1917" s="1" t="n">
-        <v>5818539224</v>
+        <v>1718927240</v>
       </c>
       <c r="C1917" s="1" t="inlineStr">
         <is>
-          <t>Гари Гаритсон</t>
+          <t>bdhd525</t>
         </is>
       </c>
       <c r="D1917" s="1" t="n"/>
@@ -36890,11 +36890,11 @@
         <v>1917</v>
       </c>
       <c r="B1918" s="1" t="n">
-        <v>1718927240</v>
+        <v>6297021260</v>
       </c>
       <c r="C1918" s="1" t="inlineStr">
         <is>
-          <t>bdhd525</t>
+          <t>Rabotyaga77</t>
         </is>
       </c>
       <c r="D1918" s="1" t="n"/>
@@ -36909,11 +36909,11 @@
         <v>1918</v>
       </c>
       <c r="B1919" s="1" t="n">
-        <v>6297021260</v>
+        <v>6592484060</v>
       </c>
       <c r="C1919" s="1" t="inlineStr">
         <is>
-          <t>Rabotyaga77</t>
+          <t>bofnsn22</t>
         </is>
       </c>
       <c r="D1919" s="1" t="n"/>
@@ -36928,11 +36928,11 @@
         <v>1919</v>
       </c>
       <c r="B1920" s="1" t="n">
-        <v>6592484060</v>
+        <v>6015701117</v>
       </c>
       <c r="C1920" s="1" t="inlineStr">
         <is>
-          <t>bofnsn22</t>
+          <t>InsamAdm</t>
         </is>
       </c>
       <c r="D1920" s="1" t="n"/>
@@ -36947,11 +36947,11 @@
         <v>1920</v>
       </c>
       <c r="B1921" s="1" t="n">
-        <v>6015701117</v>
+        <v>5686562738</v>
       </c>
       <c r="C1921" s="1" t="inlineStr">
         <is>
-          <t>InsamAdm</t>
+          <t>iblackhot</t>
         </is>
       </c>
       <c r="D1921" s="1" t="n"/>
@@ -36966,11 +36966,11 @@
         <v>1921</v>
       </c>
       <c r="B1922" s="1" t="n">
-        <v>5686562738</v>
+        <v>5634504714</v>
       </c>
       <c r="C1922" s="1" t="inlineStr">
         <is>
-          <t>iblackhot</t>
+          <t>scb_dd</t>
         </is>
       </c>
       <c r="D1922" s="1" t="n"/>
@@ -36985,11 +36985,11 @@
         <v>1922</v>
       </c>
       <c r="B1923" s="1" t="n">
-        <v>5634504714</v>
+        <v>895545937</v>
       </c>
       <c r="C1923" s="1" t="inlineStr">
         <is>
-          <t>scb_dd</t>
+          <t>KukuruzaLeon</t>
         </is>
       </c>
       <c r="D1923" s="1" t="n"/>
@@ -37004,11 +37004,11 @@
         <v>1923</v>
       </c>
       <c r="B1924" s="1" t="n">
-        <v>895545937</v>
+        <v>5161146617</v>
       </c>
       <c r="C1924" s="1" t="inlineStr">
         <is>
-          <t>KukuruzaLeon</t>
+          <t>di_perignon</t>
         </is>
       </c>
       <c r="D1924" s="1" t="n"/>
@@ -37023,11 +37023,11 @@
         <v>1924</v>
       </c>
       <c r="B1925" s="1" t="n">
-        <v>5161146617</v>
+        <v>479548488</v>
       </c>
       <c r="C1925" s="1" t="inlineStr">
         <is>
-          <t>di_perignon</t>
+          <t>raburik0</t>
         </is>
       </c>
       <c r="D1925" s="1" t="n"/>
@@ -37042,11 +37042,11 @@
         <v>1925</v>
       </c>
       <c r="B1926" s="1" t="n">
-        <v>479548488</v>
+        <v>2035128931</v>
       </c>
       <c r="C1926" s="1" t="inlineStr">
         <is>
-          <t>raburik0</t>
+          <t>Zero636</t>
         </is>
       </c>
       <c r="D1926" s="1" t="n"/>
@@ -37061,11 +37061,11 @@
         <v>1926</v>
       </c>
       <c r="B1927" s="1" t="n">
-        <v>2035128931</v>
+        <v>5919888545</v>
       </c>
       <c r="C1927" s="1" t="inlineStr">
         <is>
-          <t>Zero636</t>
+          <t>RS_MEDIA_GROUP7</t>
         </is>
       </c>
       <c r="D1927" s="1" t="n"/>
@@ -37080,11 +37080,11 @@
         <v>1927</v>
       </c>
       <c r="B1928" s="1" t="n">
-        <v>5919888545</v>
+        <v>5607039074</v>
       </c>
       <c r="C1928" s="1" t="inlineStr">
         <is>
-          <t>RS_MEDIA_GROUP7</t>
+          <t>kas_19911_kas</t>
         </is>
       </c>
       <c r="D1928" s="1" t="n"/>
@@ -37099,11 +37099,11 @@
         <v>1928</v>
       </c>
       <c r="B1929" s="1" t="n">
-        <v>5607039074</v>
+        <v>1215302342</v>
       </c>
       <c r="C1929" s="1" t="inlineStr">
         <is>
-          <t>kas_19911_kas</t>
+          <t>kaban_55</t>
         </is>
       </c>
       <c r="D1929" s="1" t="n"/>
@@ -37118,11 +37118,11 @@
         <v>1929</v>
       </c>
       <c r="B1930" s="1" t="n">
-        <v>1215302342</v>
+        <v>6700175270</v>
       </c>
       <c r="C1930" s="1" t="inlineStr">
         <is>
-          <t>kaban_55</t>
+          <t>Permanent link</t>
         </is>
       </c>
       <c r="D1930" s="1" t="n"/>
@@ -37137,11 +37137,11 @@
         <v>1930</v>
       </c>
       <c r="B1931" s="1" t="n">
-        <v>6700175270</v>
+        <v>6905344373</v>
       </c>
       <c r="C1931" s="1" t="inlineStr">
         <is>
-          <t>Permanent link</t>
+          <t>RelaxRuslanTM</t>
         </is>
       </c>
       <c r="D1931" s="1" t="n"/>
@@ -37156,11 +37156,11 @@
         <v>1931</v>
       </c>
       <c r="B1932" s="1" t="n">
-        <v>6905344373</v>
+        <v>6523100387</v>
       </c>
       <c r="C1932" s="1" t="inlineStr">
         <is>
-          <t>RelaxRuslanTM</t>
+          <t>Jessie_commerce</t>
         </is>
       </c>
       <c r="D1932" s="1" t="n"/>
@@ -37175,11 +37175,11 @@
         <v>1932</v>
       </c>
       <c r="B1933" s="1" t="n">
-        <v>6523100387</v>
+        <v>6850418609</v>
       </c>
       <c r="C1933" s="1" t="inlineStr">
         <is>
-          <t>Jessie_commerce</t>
+          <t>Damncomerse</t>
         </is>
       </c>
       <c r="D1933" s="1" t="n"/>
@@ -37194,11 +37194,11 @@
         <v>1933</v>
       </c>
       <c r="B1934" s="1" t="n">
-        <v>6850418609</v>
+        <v>5241388622</v>
       </c>
       <c r="C1934" s="1" t="inlineStr">
         <is>
-          <t>Damncomerse</t>
+          <t>mushegdjan</t>
         </is>
       </c>
       <c r="D1934" s="1" t="n"/>
@@ -37213,11 +37213,11 @@
         <v>1934</v>
       </c>
       <c r="B1935" s="1" t="n">
-        <v>5241388622</v>
+        <v>954439550</v>
       </c>
       <c r="C1935" s="1" t="inlineStr">
         <is>
-          <t>mushegdjan</t>
+          <t>nursgl</t>
         </is>
       </c>
       <c r="D1935" s="1" t="n"/>
@@ -37232,11 +37232,11 @@
         <v>1935</v>
       </c>
       <c r="B1936" s="1" t="n">
-        <v>948319514</v>
+        <v>6932536245</v>
       </c>
       <c r="C1936" s="1" t="inlineStr">
         <is>
-          <t>v1sual_tg</t>
+          <t>rekrutdd</t>
         </is>
       </c>
       <c r="D1936" s="1" t="n"/>
@@ -37251,11 +37251,11 @@
         <v>1936</v>
       </c>
       <c r="B1937" s="1" t="n">
-        <v>954439550</v>
+        <v>1719021912</v>
       </c>
       <c r="C1937" s="1" t="inlineStr">
         <is>
-          <t>nursgl</t>
+          <t>shaggy_rodgers</t>
         </is>
       </c>
       <c r="D1937" s="1" t="n"/>
@@ -37270,11 +37270,11 @@
         <v>1937</v>
       </c>
       <c r="B1938" s="1" t="n">
-        <v>6932536245</v>
+        <v>6702362732</v>
       </c>
       <c r="C1938" s="1" t="inlineStr">
         <is>
-          <t>rekrutdd</t>
+          <t>moderatortk</t>
         </is>
       </c>
       <c r="D1938" s="1" t="n"/>
@@ -37289,11 +37289,11 @@
         <v>1938</v>
       </c>
       <c r="B1939" s="1" t="n">
-        <v>1719021912</v>
+        <v>948319514</v>
       </c>
       <c r="C1939" s="1" t="inlineStr">
         <is>
-          <t>shaggy_rodgers</t>
+          <t>v1sual_tg</t>
         </is>
       </c>
       <c r="D1939" s="1" t="n"/>
@@ -37308,11 +37308,11 @@
         <v>1939</v>
       </c>
       <c r="B1940" s="1" t="n">
-        <v>6702362732</v>
+        <v>1248</v>
       </c>
       <c r="C1940" s="1" t="inlineStr">
         <is>
-          <t>moderatortk</t>
+          <t>vkgarant_kray</t>
         </is>
       </c>
       <c r="D1940" s="1" t="n"/>
@@ -37327,9 +37327,13 @@
         <v>1940</v>
       </c>
       <c r="B1941" s="1" t="n">
-        <v>2097765187</v>
-      </c>
-      <c r="C1941" s="1" t="n"/>
+        <v>7425</v>
+      </c>
+      <c r="C1941" s="1" t="inlineStr">
+        <is>
+          <t>MORENZ0</t>
+        </is>
+      </c>
       <c r="D1941" s="1" t="n"/>
       <c r="E1941" s="2" t="inlineStr">
         <is>
@@ -37342,11 +37346,11 @@
         <v>1941</v>
       </c>
       <c r="B1942" s="1" t="n">
-        <v>1567066355</v>
+        <v>6314426649</v>
       </c>
       <c r="C1942" s="1" t="inlineStr">
         <is>
-          <t>reazonvan</t>
+          <t>MORENZOLZT</t>
         </is>
       </c>
       <c r="D1942" s="1" t="n"/>
@@ -37361,11 +37365,11 @@
         <v>1942</v>
       </c>
       <c r="B1943" s="1" t="n">
-        <v>6930043084</v>
+        <v>6247948967</v>
       </c>
       <c r="C1943" s="1" t="inlineStr">
         <is>
-          <t>parse_post</t>
+          <t>Egorka1060</t>
         </is>
       </c>
       <c r="D1943" s="1" t="n"/>
@@ -37380,13 +37384,9 @@
         <v>1943</v>
       </c>
       <c r="B1944" s="1" t="n">
-        <v>697</v>
-      </c>
-      <c r="C1944" s="1" t="inlineStr">
-        <is>
-          <t>parse_post</t>
-        </is>
-      </c>
+        <v>2097765187</v>
+      </c>
+      <c r="C1944" s="1" t="n"/>
       <c r="D1944" s="1" t="n"/>
       <c r="E1944" s="2" t="inlineStr">
         <is>
@@ -37399,11 +37399,910 @@
         <v>1944</v>
       </c>
       <c r="B1945" s="1" t="n">
-        <v>-1001980121193</v>
-      </c>
-      <c r="C1945" s="1" t="n"/>
+        <v>6841437090</v>
+      </c>
+      <c r="C1945" s="1" t="inlineStr">
+        <is>
+          <t>Twix637</t>
+        </is>
+      </c>
       <c r="D1945" s="1" t="n"/>
       <c r="E1945" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" s="1" t="n">
+        <v>1945</v>
+      </c>
+      <c r="B1946" s="1" t="n">
+        <v>6945082106</v>
+      </c>
+      <c r="C1946" s="1" t="inlineStr">
+        <is>
+          <t>nikita_tochka</t>
+        </is>
+      </c>
+      <c r="D1946" s="1" t="n"/>
+      <c r="E1946" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" s="1" t="n">
+        <v>1946</v>
+      </c>
+      <c r="B1947" s="1" t="n">
+        <v>1567066355</v>
+      </c>
+      <c r="C1947" s="1" t="inlineStr">
+        <is>
+          <t>reazonvan</t>
+        </is>
+      </c>
+      <c r="D1947" s="1" t="n"/>
+      <c r="E1947" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" s="1" t="n">
+        <v>1947</v>
+      </c>
+      <c r="B1948" s="1" t="n">
+        <v>6321134688</v>
+      </c>
+      <c r="C1948" s="1" t="inlineStr">
+        <is>
+          <t>popkokorw</t>
+        </is>
+      </c>
+      <c r="D1948" s="1" t="n"/>
+      <c r="E1948" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" s="1" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B1949" s="1" t="n">
+        <v>6930043084</v>
+      </c>
+      <c r="C1949" s="1" t="inlineStr">
+        <is>
+          <t>parse_post</t>
+        </is>
+      </c>
+      <c r="D1949" s="1" t="n"/>
+      <c r="E1949" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" s="1" t="n">
+        <v>1949</v>
+      </c>
+      <c r="B1950" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="C1950" s="1" t="inlineStr">
+        <is>
+          <t>parse_post</t>
+        </is>
+      </c>
+      <c r="D1950" s="1" t="n"/>
+      <c r="E1950" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" s="1" t="n">
+        <v>1950</v>
+      </c>
+      <c r="B1951" s="1" t="n">
+        <v>-1001980121193</v>
+      </c>
+      <c r="C1951" s="1" t="n"/>
+      <c r="D1951" s="1" t="n"/>
+      <c r="E1951" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" s="1" t="n">
+        <v>1951</v>
+      </c>
+      <c r="B1952" s="1" t="n">
+        <v>7658</v>
+      </c>
+      <c r="C1952" s="1" t="inlineStr">
+        <is>
+          <t>toshtemiroww</t>
+        </is>
+      </c>
+      <c r="D1952" s="1" t="n"/>
+      <c r="E1952" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" s="1" t="n">
+        <v>1952</v>
+      </c>
+      <c r="B1953" s="1" t="n">
+        <v>5605764390</v>
+      </c>
+      <c r="C1953" s="1" t="inlineStr">
+        <is>
+          <t>genalogist</t>
+        </is>
+      </c>
+      <c r="D1953" s="1" t="n"/>
+      <c r="E1953" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" s="1" t="n">
+        <v>1953</v>
+      </c>
+      <c r="B1954" s="1" t="n">
+        <v>5837</v>
+      </c>
+      <c r="C1954" s="1" t="inlineStr">
+        <is>
+          <t>B8888B888B</t>
+        </is>
+      </c>
+      <c r="D1954" s="1" t="n"/>
+      <c r="E1954" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" s="1" t="n">
+        <v>1954</v>
+      </c>
+      <c r="B1955" s="1" t="n">
+        <v>9756</v>
+      </c>
+      <c r="C1955" s="1" t="inlineStr">
+        <is>
+          <t>kinoman_sis</t>
+        </is>
+      </c>
+      <c r="D1955" s="1" t="n"/>
+      <c r="E1955" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" s="1" t="n">
+        <v>1955</v>
+      </c>
+      <c r="B1956" s="1" t="n">
+        <v>988083475</v>
+      </c>
+      <c r="C1956" s="1" t="inlineStr">
+        <is>
+          <t>Kamichigiri</t>
+        </is>
+      </c>
+      <c r="D1956" s="1" t="n"/>
+      <c r="E1956" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" s="1" t="n">
+        <v>1956</v>
+      </c>
+      <c r="B1957" s="1" t="n">
+        <v>5285</v>
+      </c>
+      <c r="C1957" s="1" t="inlineStr">
+        <is>
+          <t>pioturo</t>
+        </is>
+      </c>
+      <c r="D1957" s="1" t="n"/>
+      <c r="E1957" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" s="1" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B1958" s="1" t="n">
+        <v>-1001618769521</v>
+      </c>
+      <c r="C1958" s="1" t="n"/>
+      <c r="D1958" s="1" t="n"/>
+      <c r="E1958" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" s="1" t="n">
+        <v>1958</v>
+      </c>
+      <c r="B1959" s="1" t="n">
+        <v>1487</v>
+      </c>
+      <c r="C1959" s="1" t="inlineStr">
+        <is>
+          <t>valHet12</t>
+        </is>
+      </c>
+      <c r="D1959" s="1" t="n"/>
+      <c r="E1959" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" s="1" t="n">
+        <v>1959</v>
+      </c>
+      <c r="B1960" s="1" t="n">
+        <v>1549636111</v>
+      </c>
+      <c r="C1960" s="1" t="inlineStr">
+        <is>
+          <t>kiruxa_beng</t>
+        </is>
+      </c>
+      <c r="D1960" s="1" t="n"/>
+      <c r="E1960" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1961" s="1" t="n">
+        <v>-1001838095531</v>
+      </c>
+      <c r="C1961" s="1" t="n"/>
+      <c r="D1961" s="1" t="n"/>
+      <c r="E1961" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" s="1" t="n">
+        <v>1961</v>
+      </c>
+      <c r="B1962" s="1" t="n">
+        <v>213213213</v>
+      </c>
+      <c r="C1962" s="1" t="n"/>
+      <c r="D1962" s="1" t="n"/>
+      <c r="E1962" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" s="1" t="n">
+        <v>1962</v>
+      </c>
+      <c r="B1963" s="1" t="n">
+        <v>5136522980</v>
+      </c>
+      <c r="C1963" s="1" t="inlineStr">
+        <is>
+          <t>neformaI</t>
+        </is>
+      </c>
+      <c r="D1963" s="1" t="n"/>
+      <c r="E1963" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" s="1" t="n">
+        <v>1963</v>
+      </c>
+      <c r="B1964" s="1" t="n">
+        <v>5086813372</v>
+      </c>
+      <c r="C1964" s="1" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="D1964" s="1" t="n"/>
+      <c r="E1964" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" s="1" t="n">
+        <v>1964</v>
+      </c>
+      <c r="B1965" s="1" t="n">
+        <v>7153564991</v>
+      </c>
+      <c r="C1965" s="1" t="inlineStr">
+        <is>
+          <t>Flanje_Tag</t>
+        </is>
+      </c>
+      <c r="D1965" s="1" t="n"/>
+      <c r="E1965" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" s="1" t="n">
+        <v>1965</v>
+      </c>
+      <c r="B1966" s="1" t="n">
+        <v>6989448643</v>
+      </c>
+      <c r="C1966" s="1" t="inlineStr">
+        <is>
+          <t>MedvedevLexa</t>
+        </is>
+      </c>
+      <c r="D1966" s="1" t="n"/>
+      <c r="E1966" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" s="1" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B1967" s="1" t="n">
+        <v>6185183256</v>
+      </c>
+      <c r="C1967" s="1" t="n"/>
+      <c r="D1967" s="1" t="n"/>
+      <c r="E1967" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" s="1" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B1968" s="1" t="n">
+        <v>7146047479</v>
+      </c>
+      <c r="C1968" s="1" t="n"/>
+      <c r="D1968" s="1" t="n"/>
+      <c r="E1968" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" s="1" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B1969" s="1" t="n">
+        <v>2083055350</v>
+      </c>
+      <c r="C1969" s="1" t="inlineStr">
+        <is>
+          <t>gavkzn0</t>
+        </is>
+      </c>
+      <c r="D1969" s="1" t="n"/>
+      <c r="E1969" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" s="1" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B1970" s="1" t="n">
+        <v>5618239102</v>
+      </c>
+      <c r="C1970" s="1" t="inlineStr">
+        <is>
+          <t>GeorgeVape</t>
+        </is>
+      </c>
+      <c r="D1970" s="1" t="n"/>
+      <c r="E1970" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1971" s="1" t="n">
+        <v>7067960755</v>
+      </c>
+      <c r="C1971" s="1" t="inlineStr">
+        <is>
+          <t>Rg_garantt_da</t>
+        </is>
+      </c>
+      <c r="D1971" s="1" t="inlineStr">
+        <is>
+          <t>Rg ‼️[Гарант]‼️</t>
+        </is>
+      </c>
+      <c r="E1971" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" s="1" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B1972" s="1" t="n">
+        <v>6723060528</v>
+      </c>
+      <c r="C1972" s="1" t="inlineStr">
+        <is>
+          <t>O0tarov</t>
+        </is>
+      </c>
+      <c r="D1972" s="1" t="n"/>
+      <c r="E1972" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" s="1" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B1973" s="1" t="n">
+        <v>6530723114</v>
+      </c>
+      <c r="C1973" s="1" t="inlineStr">
+        <is>
+          <t>nvzyiz77</t>
+        </is>
+      </c>
+      <c r="D1973" s="1" t="n"/>
+      <c r="E1973" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" s="1" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B1974" s="1" t="n">
+        <v>6886412457</v>
+      </c>
+      <c r="C1974" s="1" t="inlineStr">
+        <is>
+          <t>Topvena</t>
+        </is>
+      </c>
+      <c r="D1974" s="1" t="n"/>
+      <c r="E1974" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" s="1" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B1975" s="1" t="n">
+        <v>6827221717</v>
+      </c>
+      <c r="C1975" s="1" t="inlineStr">
+        <is>
+          <t>Ignatzaky</t>
+        </is>
+      </c>
+      <c r="D1975" s="1" t="n"/>
+      <c r="E1975" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" s="1" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B1976" s="1" t="n">
+        <v>5472820131</v>
+      </c>
+      <c r="C1976" s="1" t="inlineStr">
+        <is>
+          <t>Hikikari</t>
+        </is>
+      </c>
+      <c r="D1976" s="1" t="n"/>
+      <c r="E1976" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" s="1" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B1977" s="1" t="n">
+        <v>6313900361</v>
+      </c>
+      <c r="C1977" s="1" t="inlineStr">
+        <is>
+          <t>gamer_adm</t>
+        </is>
+      </c>
+      <c r="D1977" s="1" t="n"/>
+      <c r="E1977" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" s="1" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B1978" s="1" t="n">
+        <v>6920330823</v>
+      </c>
+      <c r="C1978" s="1" t="inlineStr">
+        <is>
+          <t>superstar_tg</t>
+        </is>
+      </c>
+      <c r="D1978" s="1" t="n"/>
+      <c r="E1978" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" s="1" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B1979" s="1" t="n">
+        <v>6716215255</v>
+      </c>
+      <c r="C1979" s="1" t="inlineStr">
+        <is>
+          <t>F.R</t>
+        </is>
+      </c>
+      <c r="D1979" s="1" t="n"/>
+      <c r="E1979" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" s="1" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B1980" s="1" t="n">
+        <v>797944463</v>
+      </c>
+      <c r="C1980" s="1" t="inlineStr">
+        <is>
+          <t>ZakupZarj</t>
+        </is>
+      </c>
+      <c r="D1980" s="1" t="n"/>
+      <c r="E1980" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" s="1" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1981" s="1" t="n">
+        <v>-1001987860895</v>
+      </c>
+      <c r="C1981" s="1" t="n"/>
+      <c r="D1981" s="1" t="n"/>
+      <c r="E1981" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" s="1" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B1982" s="1" t="n">
+        <v>1445227654</v>
+      </c>
+      <c r="C1982" s="1" t="inlineStr">
+        <is>
+          <t>Проверить по Username</t>
+        </is>
+      </c>
+      <c r="D1982" s="1" t="n"/>
+      <c r="E1982" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" s="1" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B1983" s="1" t="n">
+        <v>612761675</v>
+      </c>
+      <c r="C1983" s="1" t="inlineStr">
+        <is>
+          <t>mousa_aminov</t>
+        </is>
+      </c>
+      <c r="D1983" s="1" t="n"/>
+      <c r="E1983" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" s="1" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B1984" s="1" t="n">
+        <v>6374225415</v>
+      </c>
+      <c r="C1984" s="1" t="inlineStr">
+        <is>
+          <t>Snakefox1</t>
+        </is>
+      </c>
+      <c r="D1984" s="1" t="n"/>
+      <c r="E1984" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" s="1" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B1985" s="1" t="n">
+        <v>866716963</v>
+      </c>
+      <c r="C1985" s="1" t="inlineStr">
+        <is>
+          <t>Ramil0220</t>
+        </is>
+      </c>
+      <c r="D1985" s="1" t="n"/>
+      <c r="E1985" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" s="1" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B1986" s="1" t="n">
+        <v>996398829</v>
+      </c>
+      <c r="C1986" s="1" t="inlineStr"/>
+      <c r="D1986" s="1" t="n"/>
+      <c r="E1986" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" s="1" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B1987" s="1" t="n">
+        <v>6574810141</v>
+      </c>
+      <c r="C1987" s="1" t="inlineStr">
+        <is>
+          <t>apostraf</t>
+        </is>
+      </c>
+      <c r="D1987" s="1" t="n"/>
+      <c r="E1987" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" s="1" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B1988" s="1" t="n">
+        <v>5001676346</v>
+      </c>
+      <c r="C1988" s="1" t="inlineStr">
+        <is>
+          <t>Admnskiy</t>
+        </is>
+      </c>
+      <c r="D1988" s="1" t="n"/>
+      <c r="E1988" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" s="1" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B1989" s="1" t="n">
+        <v>815709649</v>
+      </c>
+      <c r="C1989" s="1" t="inlineStr">
+        <is>
+          <t>ivankhodak</t>
+        </is>
+      </c>
+      <c r="D1989" s="1" t="n"/>
+      <c r="E1989" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" s="1" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B1990" s="1" t="n">
+        <v>6934287584</v>
+      </c>
+      <c r="C1990" s="1" t="inlineStr">
+        <is>
+          <t>BATCOHtg</t>
+        </is>
+      </c>
+      <c r="D1990" s="1" t="n"/>
+      <c r="E1990" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" s="1" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B1991" s="1" t="n">
+        <v>-1001770888420</v>
+      </c>
+      <c r="C1991" s="1" t="n"/>
+      <c r="D1991" s="1" t="n"/>
+      <c r="E1991" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" s="1" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B1992" s="1" t="n">
+        <v>6363550489</v>
+      </c>
+      <c r="C1992" s="1" t="inlineStr">
+        <is>
+          <t>Tinkoffbankomat</t>
+        </is>
+      </c>
+      <c r="D1992" s="1" t="n"/>
+      <c r="E1992" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" s="1" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B1993" s="1" t="n">
+        <v>447310833</v>
+      </c>
+      <c r="C1993" s="1" t="inlineStr">
+        <is>
+          <t>Vitmsp</t>
+        </is>
+      </c>
+      <c r="D1993" s="1" t="n"/>
+      <c r="E1993" s="2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" s="1" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B1994" s="1" t="n">
+        <v>-1002112974430</v>
+      </c>
+      <c r="C1994" s="1" t="n"/>
+      <c r="D1994" s="1" t="n"/>
+      <c r="E1994" s="2" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
